--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_20_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_20_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4157818.631458206</v>
+        <v>-4158520.767142581</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2446118.20279931</v>
+        <v>2446118.202799312</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>198.6988396730521</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>107.5702156612909</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>11.74649515820824</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>42.18246213585448</v>
       </c>
       <c r="U11" t="n">
-        <v>72.6726250995567</v>
+        <v>72.67262509955681</v>
       </c>
       <c r="V11" t="n">
         <v>149.1209360183646</v>
@@ -1433,10 +1433,10 @@
         <v>170.6096462656427</v>
       </c>
       <c r="X11" t="n">
-        <v>119.3167108195</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S12" t="n">
         <v>166.5021842555528</v>
@@ -1503,16 +1503,16 @@
         <v>20.40912598010589</v>
       </c>
       <c r="U12" t="n">
-        <v>132.6084313441765</v>
+        <v>47.29170902643612</v>
       </c>
       <c r="V12" t="n">
-        <v>198.6988396730521</v>
+        <v>54.169264697655</v>
       </c>
       <c r="W12" t="n">
-        <v>198.6988396730521</v>
+        <v>174.1482014115215</v>
       </c>
       <c r="X12" t="n">
-        <v>27.1416627517072</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="Y12" t="n">
         <v>27.05137332553409</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>198.6988396730521</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>155.5045423845798</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>18.50923699120967</v>
+        <v>18.50923699120973</v>
       </c>
       <c r="T14" t="n">
-        <v>42.1824621358545</v>
+        <v>42.18246213585439</v>
       </c>
       <c r="U14" t="n">
-        <v>72.67262509955681</v>
+        <v>72.67262509955692</v>
       </c>
       <c r="V14" t="n">
-        <v>149.1209360183646</v>
+        <v>149.1209360183647</v>
       </c>
       <c r="W14" t="n">
-        <v>170.6096462656427</v>
+        <v>170.6096462656428</v>
       </c>
       <c r="X14" t="n">
-        <v>119.3167108195002</v>
+        <v>162.5110081079709</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>78.4391666465215</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>20.40912598010589</v>
+        <v>93.70301053466171</v>
       </c>
       <c r="U15" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="V15" t="n">
-        <v>54.169264697655</v>
+        <v>54.16926469765505</v>
       </c>
       <c r="W15" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="X15" t="n">
-        <v>27.1416627517072</v>
+        <v>27.14166275170726</v>
       </c>
       <c r="Y15" t="n">
-        <v>27.05137332553409</v>
+        <v>198.6988396730519</v>
       </c>
     </row>
     <row r="16">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.200657730167023</v>
+        <v>1.20065773016708</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>41.30999778875466</v>
+        <v>41.30999778875472</v>
       </c>
       <c r="T16" t="n">
-        <v>48.31511175255179</v>
+        <v>48.31511175255184</v>
       </c>
       <c r="U16" t="n">
         <v>107.6749517316488</v>
       </c>
       <c r="V16" t="n">
-        <v>73.50632087205773</v>
+        <v>73.50632087205778</v>
       </c>
       <c r="W16" t="n">
-        <v>107.8916758848207</v>
+        <v>107.8916758848208</v>
       </c>
       <c r="X16" t="n">
-        <v>47.07833293726688</v>
+        <v>47.07833293726694</v>
       </c>
       <c r="Y16" t="n">
-        <v>39.95333090032452</v>
+        <v>39.95333090032457</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.52790659228515</v>
+        <v>82.52790659228492</v>
       </c>
       <c r="C17" t="n">
-        <v>65.06695669981212</v>
+        <v>65.06695669981289</v>
       </c>
       <c r="D17" t="n">
-        <v>54.47710654948753</v>
+        <v>54.4771065494873</v>
       </c>
       <c r="E17" t="n">
-        <v>81.72443500106635</v>
+        <v>81.72443500106613</v>
       </c>
       <c r="F17" t="n">
-        <v>106.670110670516</v>
+        <v>106.6701106705158</v>
       </c>
       <c r="G17" t="n">
-        <v>114.5754854875703</v>
+        <v>114.5754854875701</v>
       </c>
       <c r="H17" t="n">
-        <v>33.92992976515464</v>
+        <v>33.92992976515441</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>27.54632339893948</v>
+        <v>27.54632339893925</v>
       </c>
       <c r="W17" t="n">
-        <v>49.03503364621758</v>
+        <v>49.03503364621736</v>
       </c>
       <c r="X17" t="n">
-        <v>69.52516560727361</v>
+        <v>69.52516560727338</v>
       </c>
       <c r="Y17" t="n">
-        <v>86.03200358485816</v>
+        <v>86.03200358485793</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1974,13 +1974,13 @@
         <v>166.5021842555528</v>
       </c>
       <c r="T18" t="n">
-        <v>198.6988396730521</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="V18" t="n">
-        <v>198.6988396730521</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>124.3708347682013</v>
+        <v>150.3611754529368</v>
       </c>
     </row>
     <row r="19">
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>101.8109874335741</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>198.6988396730521</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>101.8109874335744</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.52790659228515</v>
+        <v>82.52790659228492</v>
       </c>
       <c r="C20" t="n">
-        <v>65.06695669981212</v>
+        <v>65.0669566998119</v>
       </c>
       <c r="D20" t="n">
-        <v>54.47710654948753</v>
+        <v>54.4771065494873</v>
       </c>
       <c r="E20" t="n">
-        <v>81.72443500106635</v>
+        <v>81.72443500106613</v>
       </c>
       <c r="F20" t="n">
-        <v>106.670110670516</v>
+        <v>106.6701106705158</v>
       </c>
       <c r="G20" t="n">
-        <v>114.5754854875703</v>
+        <v>114.5754854875701</v>
       </c>
       <c r="H20" t="n">
-        <v>33.92992976515464</v>
+        <v>33.92992976515441</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>27.54632339893948</v>
+        <v>27.54632339893925</v>
       </c>
       <c r="W20" t="n">
-        <v>49.03503364621758</v>
+        <v>49.03503364621736</v>
       </c>
       <c r="X20" t="n">
-        <v>69.52516560727319</v>
+        <v>69.52516560727338</v>
       </c>
       <c r="Y20" t="n">
-        <v>86.03200358485816</v>
+        <v>86.03200358485793</v>
       </c>
     </row>
     <row r="21">
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.83975863332243</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,19 +2214,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>37.94934998289338</v>
       </c>
       <c r="W21" t="n">
-        <v>92.17417935070198</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="X21" t="n">
-        <v>198.6988396730521</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730519</v>
       </c>
     </row>
     <row r="22">
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>198.6988396730521</v>
+        <v>101.8109874335744</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="X22" t="n">
-        <v>101.8109874335741</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.52790659228515</v>
+        <v>82.52790659228492</v>
       </c>
       <c r="C23" t="n">
-        <v>65.06695669981212</v>
+        <v>65.0669566998119</v>
       </c>
       <c r="D23" t="n">
-        <v>54.47710654948753</v>
+        <v>54.4771065494873</v>
       </c>
       <c r="E23" t="n">
-        <v>81.72443500106635</v>
+        <v>81.72443500106613</v>
       </c>
       <c r="F23" t="n">
-        <v>106.670110670516</v>
+        <v>106.6701106705158</v>
       </c>
       <c r="G23" t="n">
-        <v>114.5754854875703</v>
+        <v>114.5754854875701</v>
       </c>
       <c r="H23" t="n">
-        <v>33.92992976515464</v>
+        <v>33.92992976515444</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>27.54632339893948</v>
+        <v>27.54632339893925</v>
       </c>
       <c r="W23" t="n">
-        <v>49.03503364621758</v>
+        <v>49.03503364621736</v>
       </c>
       <c r="X23" t="n">
-        <v>69.52516560727361</v>
+        <v>69.52516560727338</v>
       </c>
       <c r="Y23" t="n">
-        <v>86.03200358485789</v>
+        <v>86.03200358485793</v>
       </c>
     </row>
     <row r="24">
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>124.3708347682006</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2445,22 +2445,22 @@
         <v>82.83975863332243</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T24" t="n">
-        <v>175.5936094823001</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>198.6988396730518</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730518</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>101.8109874335744</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.58072672426806</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2533,13 +2533,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>54.09712020042089</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>198.6988396730518</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,10 +2555,10 @@
         <v>233.7317514406241</v>
       </c>
       <c r="C26" t="n">
-        <v>216.270801548151</v>
+        <v>216.2708015481511</v>
       </c>
       <c r="D26" t="n">
-        <v>205.6809513978264</v>
+        <v>205.6809513978265</v>
       </c>
       <c r="E26" t="n">
         <v>232.9282798494053</v>
@@ -2573,7 +2573,7 @@
         <v>185.1337746134936</v>
       </c>
       <c r="I26" t="n">
-        <v>41.37572738712193</v>
+        <v>41.37572738712131</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>48.13846922012343</v>
+        <v>48.13846922012346</v>
       </c>
       <c r="T26" t="n">
-        <v>71.81169436476824</v>
+        <v>71.81169436476827</v>
       </c>
       <c r="U26" t="n">
-        <v>102.3018573284704</v>
+        <v>102.3018573284705</v>
       </c>
       <c r="V26" t="n">
         <v>178.7501682472784</v>
@@ -2618,7 +2618,7 @@
         <v>200.2388784945565</v>
       </c>
       <c r="X26" t="n">
-        <v>220.7290104556125</v>
+        <v>220.7290104556126</v>
       </c>
       <c r="Y26" t="n">
         <v>237.2358484331971</v>
@@ -2634,25 +2634,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>23.70640876545923</v>
+        <v>32.43510343686035</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>8.642990232544435</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>24.59907472259965</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2694,7 +2694,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>102.6928929380631</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30.82988995908079</v>
+        <v>30.82988995908082</v>
       </c>
       <c r="C28" t="n">
-        <v>18.24473087577132</v>
+        <v>18.24473087577135</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.75504429595217</v>
+        <v>18.7550442959522</v>
       </c>
       <c r="H28" t="n">
-        <v>11.14598907387598</v>
+        <v>11.14598907387601</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.77678681877389</v>
+        <v>17.77678681877391</v>
       </c>
       <c r="S28" t="n">
-        <v>70.93923001766842</v>
+        <v>70.93923001766845</v>
       </c>
       <c r="T28" t="n">
-        <v>77.94434398146555</v>
+        <v>77.94434398146558</v>
       </c>
       <c r="U28" t="n">
         <v>137.3041839605626</v>
@@ -2776,10 +2776,10 @@
         <v>137.5209081137345</v>
       </c>
       <c r="X28" t="n">
-        <v>76.70756516618064</v>
+        <v>76.70756516618067</v>
       </c>
       <c r="Y28" t="n">
-        <v>69.58256312923828</v>
+        <v>69.58256312923831</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>233.7317514406241</v>
+        <v>233.731751440624</v>
       </c>
       <c r="C29" t="n">
         <v>216.270801548151</v>
@@ -2798,7 +2798,7 @@
         <v>205.6809513978264</v>
       </c>
       <c r="E29" t="n">
-        <v>232.9282798494053</v>
+        <v>232.9282798494052</v>
       </c>
       <c r="F29" t="n">
         <v>257.8739555188549</v>
@@ -2807,10 +2807,10 @@
         <v>265.7793303359093</v>
       </c>
       <c r="H29" t="n">
-        <v>185.1337746134936</v>
+        <v>185.1337746134935</v>
       </c>
       <c r="I29" t="n">
-        <v>41.37572738712201</v>
+        <v>41.37572738712198</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>48.13846922012343</v>
+        <v>48.1384692201234</v>
       </c>
       <c r="T29" t="n">
-        <v>71.81169436476834</v>
+        <v>71.81169436476821</v>
       </c>
       <c r="U29" t="n">
-        <v>102.3018573284714</v>
+        <v>102.3018573284705</v>
       </c>
       <c r="V29" t="n">
         <v>178.7501682472784</v>
@@ -2858,7 +2858,7 @@
         <v>220.7290104556125</v>
       </c>
       <c r="Y29" t="n">
-        <v>237.2358484331971</v>
+        <v>237.235848433197</v>
       </c>
     </row>
     <row r="30">
@@ -2877,16 +2877,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>8.642990232544435</v>
+        <v>8.642990232544406</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.0629801846676</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S30" t="n">
         <v>166.5021842555528</v>
@@ -2925,7 +2925,7 @@
         <v>199.0404484318762</v>
       </c>
       <c r="U30" t="n">
-        <v>76.92094125534989</v>
+        <v>225.9230314782064</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2934,7 +2934,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>56.77089498062097</v>
+        <v>67.05661431023992</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.82988995908079</v>
+        <v>30.82988995908076</v>
       </c>
       <c r="C31" t="n">
-        <v>18.24473087577132</v>
+        <v>18.2447308757713</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>18.75504429595217</v>
+        <v>18.75504429595214</v>
       </c>
       <c r="H31" t="n">
-        <v>11.14598907387598</v>
+        <v>11.14598907387595</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.77678681877389</v>
+        <v>17.77678681877386</v>
       </c>
       <c r="S31" t="n">
-        <v>70.93923001766842</v>
+        <v>70.93923001766839</v>
       </c>
       <c r="T31" t="n">
-        <v>77.94434398146555</v>
+        <v>77.94434398146552</v>
       </c>
       <c r="U31" t="n">
-        <v>137.3041839605626</v>
+        <v>137.3041839605625</v>
       </c>
       <c r="V31" t="n">
         <v>103.1355531009715</v>
@@ -3013,10 +3013,10 @@
         <v>137.5209081137345</v>
       </c>
       <c r="X31" t="n">
-        <v>76.70756516618064</v>
+        <v>76.70756516618061</v>
       </c>
       <c r="Y31" t="n">
-        <v>69.58256312923828</v>
+        <v>69.58256312923825</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>233.7317514406241</v>
+        <v>233.731751440624</v>
       </c>
       <c r="C32" t="n">
-        <v>216.2708015481511</v>
+        <v>216.270801548151</v>
       </c>
       <c r="D32" t="n">
-        <v>205.6809513978265</v>
+        <v>205.6809513978264</v>
       </c>
       <c r="E32" t="n">
-        <v>232.9282798494053</v>
+        <v>232.9282798494052</v>
       </c>
       <c r="F32" t="n">
-        <v>257.873955518855</v>
+        <v>257.8739555188549</v>
       </c>
       <c r="G32" t="n">
-        <v>265.7793303359093</v>
+        <v>265.7793303359092</v>
       </c>
       <c r="H32" t="n">
         <v>185.1337746134936</v>
       </c>
       <c r="I32" t="n">
-        <v>41.37572738712205</v>
+        <v>41.37572738712197</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.13846922012348</v>
+        <v>48.13846922012292</v>
       </c>
       <c r="T32" t="n">
-        <v>71.81169436476834</v>
+        <v>71.81169436476821</v>
       </c>
       <c r="U32" t="n">
-        <v>102.301857328471</v>
+        <v>102.3018573284714</v>
       </c>
       <c r="V32" t="n">
-        <v>178.7501682472785</v>
+        <v>178.7501682472784</v>
       </c>
       <c r="W32" t="n">
-        <v>200.2388784945566</v>
+        <v>200.2388784945565</v>
       </c>
       <c r="X32" t="n">
-        <v>220.7290104556126</v>
+        <v>220.7290104556125</v>
       </c>
       <c r="Y32" t="n">
-        <v>237.2358484331971</v>
+        <v>237.235848433197</v>
       </c>
     </row>
     <row r="33">
@@ -3105,28 +3105,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>17.53109342701089</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>23.70640876545929</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>8.642990232544406</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>12.66157250087404</v>
       </c>
       <c r="I33" t="n">
-        <v>10.28571932961878</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>82.83975863332243</v>
       </c>
       <c r="S33" t="n">
-        <v>166.5021842555528</v>
+        <v>17.50009403269624</v>
       </c>
       <c r="T33" t="n">
         <v>199.0404484318762</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.82988995908084</v>
+        <v>30.82988995908076</v>
       </c>
       <c r="C34" t="n">
-        <v>18.24473087577138</v>
+        <v>18.2447308757713</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>18.75504429595222</v>
+        <v>18.75504429595214</v>
       </c>
       <c r="H34" t="n">
-        <v>11.14598907387604</v>
+        <v>11.14598907387595</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.77678681877394</v>
+        <v>17.77678681877386</v>
       </c>
       <c r="S34" t="n">
-        <v>70.93923001766848</v>
+        <v>70.93923001766839</v>
       </c>
       <c r="T34" t="n">
-        <v>77.94434398146561</v>
+        <v>77.94434398146552</v>
       </c>
       <c r="U34" t="n">
-        <v>137.3041839605626</v>
+        <v>137.3041839605625</v>
       </c>
       <c r="V34" t="n">
         <v>103.1355531009715</v>
@@ -3250,10 +3250,10 @@
         <v>137.5209081137345</v>
       </c>
       <c r="X34" t="n">
-        <v>76.7075651661807</v>
+        <v>76.70756516618061</v>
       </c>
       <c r="Y34" t="n">
-        <v>69.58256312923834</v>
+        <v>69.58256312923825</v>
       </c>
     </row>
     <row r="35">
@@ -3342,28 +3342,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>61.15917624031924</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.83975863332245</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S36" t="n">
-        <v>166.5021842555528</v>
+        <v>13.62726075869564</v>
       </c>
       <c r="T36" t="n">
         <v>199.0404484318762</v>
@@ -3411,7 +3411,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>4.250123985529825</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3503,7 +3503,7 @@
         <v>181.3012698717061</v>
       </c>
       <c r="C38" t="n">
-        <v>163.840319979233</v>
+        <v>163.8403199792331</v>
       </c>
       <c r="D38" t="n">
         <v>153.2504698289085</v>
@@ -3512,7 +3512,7 @@
         <v>180.4977982804873</v>
       </c>
       <c r="F38" t="n">
-        <v>205.4434739499369</v>
+        <v>205.443473949937</v>
       </c>
       <c r="G38" t="n">
         <v>213.3488487669913</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>19.38121279585006</v>
+        <v>19.38121279585027</v>
       </c>
       <c r="U38" t="n">
-        <v>49.87137575955245</v>
+        <v>49.87137575955248</v>
       </c>
       <c r="V38" t="n">
         <v>126.3196866783604</v>
@@ -3566,7 +3566,7 @@
         <v>147.8083969256385</v>
       </c>
       <c r="X38" t="n">
-        <v>168.2985288866945</v>
+        <v>168.2985288866946</v>
       </c>
       <c r="Y38" t="n">
         <v>184.8053668642791</v>
@@ -3582,7 +3582,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.83975863332245</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S39" t="n">
         <v>166.5021842555528</v>
@@ -3645,7 +3645,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>75.69960454278443</v>
+        <v>138.8665277810087</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.50874844875043</v>
+        <v>18.50874844875046</v>
       </c>
       <c r="T40" t="n">
-        <v>25.51386241254755</v>
+        <v>25.51386241254758</v>
       </c>
       <c r="U40" t="n">
-        <v>84.87370239164456</v>
+        <v>84.87370239164458</v>
       </c>
       <c r="V40" t="n">
-        <v>50.70507153205349</v>
+        <v>50.70507153205352</v>
       </c>
       <c r="W40" t="n">
-        <v>85.09042654481649</v>
+        <v>85.09042654481652</v>
       </c>
       <c r="X40" t="n">
-        <v>24.27708359726265</v>
+        <v>24.27708359726267</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.15208156032028</v>
+        <v>17.15208156032031</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3794,7 @@
         <v>19.38121279585019</v>
       </c>
       <c r="U41" t="n">
-        <v>49.87137575955114</v>
+        <v>49.87137575955136</v>
       </c>
       <c r="V41" t="n">
         <v>126.3196866783603</v>
@@ -3822,16 +3822,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.83975863332245</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>166.5021842555528</v>
@@ -3885,7 +3885,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>77.98516828786622</v>
+        <v>21.38448574880334</v>
       </c>
     </row>
     <row r="43">
@@ -4062,13 +4062,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,25 +4101,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.83975863332245</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S45" t="n">
         <v>166.5021842555528</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.0404484318762</v>
       </c>
       <c r="U45" t="n">
         <v>225.9230314782064</v>
       </c>
       <c r="V45" t="n">
-        <v>208.4905582558513</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>121.6216025002265</v>
       </c>
       <c r="X45" t="n">
-        <v>4.34041341170294</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.89590717384417</v>
+        <v>136.4178372945507</v>
       </c>
       <c r="C11" t="n">
-        <v>15.89590717384417</v>
+        <v>27.76105379829692</v>
       </c>
       <c r="D11" t="n">
-        <v>15.89590717384417</v>
+        <v>27.76105379829692</v>
       </c>
       <c r="E11" t="n">
-        <v>15.89590717384417</v>
+        <v>27.76105379829692</v>
       </c>
       <c r="F11" t="n">
-        <v>15.89590717384417</v>
+        <v>27.76105379829692</v>
       </c>
       <c r="G11" t="n">
-        <v>15.89590717384417</v>
+        <v>27.76105379829692</v>
       </c>
       <c r="H11" t="n">
-        <v>15.89590717384417</v>
+        <v>27.76105379829692</v>
       </c>
       <c r="I11" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J11" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K11" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="L11" t="n">
-        <v>15.89590717384417</v>
+        <v>191.6526205901296</v>
       </c>
       <c r="M11" t="n">
-        <v>191.6526205901301</v>
+        <v>191.6526205901296</v>
       </c>
       <c r="N11" t="n">
-        <v>388.3644718664518</v>
+        <v>388.3644718664509</v>
       </c>
       <c r="O11" t="n">
-        <v>585.0763231427734</v>
+        <v>585.0763231427723</v>
       </c>
       <c r="P11" t="n">
-        <v>748.952748107204</v>
+        <v>748.9527481072029</v>
       </c>
       <c r="Q11" t="n">
-        <v>794.7953586922085</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="R11" t="n">
-        <v>794.7953586922085</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="S11" t="n">
-        <v>776.0991597111887</v>
+        <v>776.0991597111876</v>
       </c>
       <c r="T11" t="n">
-        <v>733.4906120992144</v>
+        <v>733.4906120992133</v>
       </c>
       <c r="U11" t="n">
-        <v>660.0839200794602</v>
+        <v>660.0839200794589</v>
       </c>
       <c r="V11" t="n">
-        <v>509.456711980102</v>
+        <v>509.4567119801007</v>
       </c>
       <c r="W11" t="n">
-        <v>337.1237359542002</v>
+        <v>337.123735954199</v>
       </c>
       <c r="X11" t="n">
-        <v>216.6018058334928</v>
+        <v>337.123735954199</v>
       </c>
       <c r="Y11" t="n">
-        <v>216.6018058334928</v>
+        <v>136.4178372945507</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="C12" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="D12" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="E12" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="F12" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="G12" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="H12" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I12" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J12" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K12" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="L12" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="M12" t="n">
-        <v>100.0162341137483</v>
+        <v>100.0162341137481</v>
       </c>
       <c r="N12" t="n">
-        <v>296.72808539007</v>
+        <v>296.7280853900694</v>
       </c>
       <c r="O12" t="n">
-        <v>493.4399366663916</v>
+        <v>493.4399366663907</v>
       </c>
       <c r="P12" t="n">
-        <v>690.1517879427132</v>
+        <v>690.1517879427121</v>
       </c>
       <c r="Q12" t="n">
-        <v>794.7953586922085</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="R12" t="n">
-        <v>794.7953586922085</v>
+        <v>711.1188348201646</v>
       </c>
       <c r="S12" t="n">
-        <v>626.6113341916501</v>
+        <v>542.9348103196062</v>
       </c>
       <c r="T12" t="n">
-        <v>605.9960554238664</v>
+        <v>522.3195315518225</v>
       </c>
       <c r="U12" t="n">
-        <v>472.0481449752033</v>
+        <v>474.5501284948163</v>
       </c>
       <c r="V12" t="n">
-        <v>271.3422463155547</v>
+        <v>419.833699507286</v>
       </c>
       <c r="W12" t="n">
-        <v>70.63634765590608</v>
+        <v>243.926425354234</v>
       </c>
       <c r="X12" t="n">
-        <v>43.22052669458567</v>
+        <v>43.22052669458565</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
     </row>
     <row r="13">
@@ -5173,52 +5173,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="C13" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="D13" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="E13" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="F13" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="G13" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="H13" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I13" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J13" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K13" t="n">
-        <v>20.74594372277245</v>
+        <v>20.74594372277243</v>
       </c>
       <c r="L13" t="n">
-        <v>82.47875529922224</v>
+        <v>82.47875529922223</v>
       </c>
       <c r="M13" t="n">
         <v>157.9564726222215</v>
       </c>
       <c r="N13" t="n">
-        <v>354.6683238985431</v>
+        <v>354.6683238985428</v>
       </c>
       <c r="O13" t="n">
-        <v>411.7299766353576</v>
+        <v>450.5034149035949</v>
       </c>
       <c r="P13" t="n">
-        <v>437.0353960279442</v>
+        <v>475.8088342961816</v>
       </c>
       <c r="Q13" t="n">
-        <v>487.5427552522201</v>
+        <v>475.8088342961816</v>
       </c>
       <c r="R13" t="n">
         <v>487.5427552522201</v>
@@ -5239,10 +5239,10 @@
         <v>105.0194643129941</v>
       </c>
       <c r="X13" t="n">
-        <v>57.46559265918916</v>
+        <v>57.46559265918914</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.10869275987147</v>
+        <v>17.10869275987145</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.89590717384417</v>
+        <v>172.9712025118038</v>
       </c>
       <c r="C14" t="n">
-        <v>15.89590717384417</v>
+        <v>172.9712025118038</v>
       </c>
       <c r="D14" t="n">
-        <v>15.89590717384417</v>
+        <v>172.9712025118038</v>
       </c>
       <c r="E14" t="n">
-        <v>15.89590717384417</v>
+        <v>172.9712025118038</v>
       </c>
       <c r="F14" t="n">
-        <v>15.89590717384417</v>
+        <v>172.9712025118038</v>
       </c>
       <c r="G14" t="n">
-        <v>15.89590717384417</v>
+        <v>172.9712025118038</v>
       </c>
       <c r="H14" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I14" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J14" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K14" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="L14" t="n">
-        <v>212.6077584501658</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="M14" t="n">
-        <v>388.3644718664518</v>
+        <v>212.6077584501655</v>
       </c>
       <c r="N14" t="n">
-        <v>585.0763231427734</v>
+        <v>388.3644718664509</v>
       </c>
       <c r="O14" t="n">
-        <v>585.0763231427734</v>
+        <v>585.0763231427723</v>
       </c>
       <c r="P14" t="n">
-        <v>748.952748107204</v>
+        <v>748.9527481072029</v>
       </c>
       <c r="Q14" t="n">
-        <v>794.7953586922085</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="R14" t="n">
-        <v>794.7953586922085</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="S14" t="n">
-        <v>776.0991597111887</v>
+        <v>776.0991597111874</v>
       </c>
       <c r="T14" t="n">
-        <v>733.4906120992144</v>
+        <v>733.4906120992133</v>
       </c>
       <c r="U14" t="n">
-        <v>660.0839200794601</v>
+        <v>660.0839200794588</v>
       </c>
       <c r="V14" t="n">
-        <v>509.4567119801019</v>
+        <v>509.4567119801005</v>
       </c>
       <c r="W14" t="n">
-        <v>337.1237359542001</v>
+        <v>337.1237359541987</v>
       </c>
       <c r="X14" t="n">
-        <v>216.6018058334928</v>
+        <v>172.9712025118038</v>
       </c>
       <c r="Y14" t="n">
-        <v>216.6018058334928</v>
+        <v>172.9712025118038</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="C15" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="D15" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="E15" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="F15" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="G15" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="H15" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I15" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J15" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K15" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="L15" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="M15" t="n">
-        <v>100.0162341137483</v>
+        <v>100.0162341137481</v>
       </c>
       <c r="N15" t="n">
-        <v>296.72808539007</v>
+        <v>296.7280853900694</v>
       </c>
       <c r="O15" t="n">
-        <v>493.4399366663916</v>
+        <v>493.4399366663907</v>
       </c>
       <c r="P15" t="n">
-        <v>690.1517879427132</v>
+        <v>690.1517879427121</v>
       </c>
       <c r="Q15" t="n">
-        <v>794.7953586922085</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="R15" t="n">
-        <v>715.5638772310757</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="S15" t="n">
-        <v>547.3798527305173</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="T15" t="n">
-        <v>526.7645739627336</v>
+        <v>700.14585310164</v>
       </c>
       <c r="U15" t="n">
-        <v>326.058675303085</v>
+        <v>499.4399544419917</v>
       </c>
       <c r="V15" t="n">
-        <v>271.3422463155547</v>
+        <v>444.7235254544613</v>
       </c>
       <c r="W15" t="n">
-        <v>70.63634765590608</v>
+        <v>244.0176267948129</v>
       </c>
       <c r="X15" t="n">
-        <v>43.22052669458567</v>
+        <v>216.6018058334925</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="C16" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="D16" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="E16" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="F16" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="G16" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="H16" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I16" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J16" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K16" t="n">
-        <v>20.74594372277245</v>
+        <v>20.74594372277243</v>
       </c>
       <c r="L16" t="n">
-        <v>82.47875529922224</v>
+        <v>82.47875529922223</v>
       </c>
       <c r="M16" t="n">
         <v>157.9564726222215</v>
@@ -5449,37 +5449,37 @@
         <v>237.0741149501262</v>
       </c>
       <c r="O16" t="n">
-        <v>294.1357676869406</v>
+        <v>433.7859662264475</v>
       </c>
       <c r="P16" t="n">
-        <v>364.8787445259544</v>
+        <v>487.5427552522206</v>
       </c>
       <c r="Q16" t="n">
-        <v>475.8088342961816</v>
+        <v>487.5427552522206</v>
       </c>
       <c r="R16" t="n">
-        <v>487.5427552522201</v>
+        <v>487.5427552522206</v>
       </c>
       <c r="S16" t="n">
-        <v>445.8154847585285</v>
+        <v>445.8154847585289</v>
       </c>
       <c r="T16" t="n">
-        <v>397.0123415741327</v>
+        <v>397.0123415741331</v>
       </c>
       <c r="U16" t="n">
-        <v>288.2497640674168</v>
+        <v>288.2497640674171</v>
       </c>
       <c r="V16" t="n">
-        <v>214.0009551057423</v>
+        <v>214.0009551057425</v>
       </c>
       <c r="W16" t="n">
-        <v>105.0194643129941</v>
+        <v>105.0194643129942</v>
       </c>
       <c r="X16" t="n">
-        <v>57.46559265918916</v>
+        <v>57.46559265918926</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.10869275987147</v>
+        <v>17.1086927598715</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>476.9504770461742</v>
+        <v>476.9504770461741</v>
       </c>
       <c r="C17" t="n">
-        <v>411.2262783594953</v>
+        <v>411.2262783594944</v>
       </c>
       <c r="D17" t="n">
-        <v>356.1988980064775</v>
+        <v>356.1988980064769</v>
       </c>
       <c r="E17" t="n">
-        <v>273.648963661966</v>
+        <v>273.6489636619656</v>
       </c>
       <c r="F17" t="n">
-        <v>165.9013771260912</v>
+        <v>165.9013771260911</v>
       </c>
       <c r="G17" t="n">
-        <v>50.16856350228321</v>
+        <v>50.16856350228295</v>
       </c>
       <c r="H17" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I17" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J17" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K17" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="L17" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="M17" t="n">
-        <v>212.6077584501658</v>
+        <v>191.6526205901296</v>
       </c>
       <c r="N17" t="n">
-        <v>388.3644718664518</v>
+        <v>388.3644718664509</v>
       </c>
       <c r="O17" t="n">
-        <v>585.0763231427734</v>
+        <v>585.0763231427723</v>
       </c>
       <c r="P17" t="n">
-        <v>748.952748107204</v>
+        <v>748.9527481072029</v>
       </c>
       <c r="Q17" t="n">
-        <v>794.7953586922085</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="R17" t="n">
-        <v>794.7953586922085</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="S17" t="n">
-        <v>794.7953586922085</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="T17" t="n">
-        <v>794.7953586922085</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="U17" t="n">
-        <v>794.7953586922085</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="V17" t="n">
-        <v>766.9707896023706</v>
+        <v>766.9707896023697</v>
       </c>
       <c r="W17" t="n">
-        <v>717.4404525859892</v>
+        <v>717.4404525859885</v>
       </c>
       <c r="X17" t="n">
-        <v>647.2130125786422</v>
+        <v>647.2130125786416</v>
       </c>
       <c r="Y17" t="n">
-        <v>560.3119988565633</v>
+        <v>560.3119988565629</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15.89590717384417</v>
+        <v>190.3489364549712</v>
       </c>
       <c r="C18" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="D18" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="E18" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="F18" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="G18" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="H18" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I18" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J18" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K18" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="L18" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="M18" t="n">
-        <v>100.0162341137483</v>
+        <v>212.6077584501655</v>
       </c>
       <c r="N18" t="n">
-        <v>296.72808539007</v>
+        <v>409.3196097264868</v>
       </c>
       <c r="O18" t="n">
-        <v>493.4399366663916</v>
+        <v>493.4399366663907</v>
       </c>
       <c r="P18" t="n">
-        <v>690.1517879427132</v>
+        <v>690.1517879427121</v>
       </c>
       <c r="Q18" t="n">
-        <v>794.7953586922085</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="R18" t="n">
-        <v>711.1188348201657</v>
+        <v>711.1188348201646</v>
       </c>
       <c r="S18" t="n">
-        <v>542.9348103196073</v>
+        <v>542.9348103196062</v>
       </c>
       <c r="T18" t="n">
-        <v>342.2289116599587</v>
+        <v>542.9348103196062</v>
       </c>
       <c r="U18" t="n">
-        <v>342.2289116599587</v>
+        <v>342.2289116599578</v>
       </c>
       <c r="V18" t="n">
-        <v>141.5230130003101</v>
+        <v>342.2289116599578</v>
       </c>
       <c r="W18" t="n">
-        <v>141.5230130003101</v>
+        <v>342.2289116599578</v>
       </c>
       <c r="X18" t="n">
-        <v>141.5230130003101</v>
+        <v>342.2289116599578</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.89590717384417</v>
+        <v>190.3489364549712</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="C19" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="D19" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="E19" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="F19" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="G19" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="H19" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I19" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J19" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K19" t="n">
-        <v>20.74594372277245</v>
+        <v>20.74594372277243</v>
       </c>
       <c r="L19" t="n">
-        <v>82.47875529922224</v>
+        <v>82.47875529922223</v>
       </c>
       <c r="M19" t="n">
         <v>157.9564726222215</v>
@@ -5695,28 +5695,28 @@
         <v>319.4411870795273</v>
       </c>
       <c r="R19" t="n">
-        <v>216.6018058334928</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="S19" t="n">
-        <v>15.89590717384417</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="T19" t="n">
-        <v>15.89590717384417</v>
+        <v>216.6018058334925</v>
       </c>
       <c r="U19" t="n">
-        <v>15.89590717384417</v>
+        <v>216.6018058334925</v>
       </c>
       <c r="V19" t="n">
-        <v>15.89590717384417</v>
+        <v>216.6018058334925</v>
       </c>
       <c r="W19" t="n">
-        <v>15.89590717384417</v>
+        <v>216.6018058334925</v>
       </c>
       <c r="X19" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>476.9504770461746</v>
+        <v>476.950477046174</v>
       </c>
       <c r="C20" t="n">
-        <v>411.2262783594956</v>
+        <v>411.2262783594952</v>
       </c>
       <c r="D20" t="n">
-        <v>356.1988980064779</v>
+        <v>356.1988980064777</v>
       </c>
       <c r="E20" t="n">
-        <v>273.6489636619664</v>
+        <v>273.6489636619665</v>
       </c>
       <c r="F20" t="n">
-        <v>165.9013771260916</v>
+        <v>165.9013771260923</v>
       </c>
       <c r="G20" t="n">
-        <v>50.16856350228321</v>
+        <v>50.16856350228295</v>
       </c>
       <c r="H20" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I20" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J20" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K20" t="n">
-        <v>15.89590717384417</v>
+        <v>184.5612501556401</v>
       </c>
       <c r="L20" t="n">
-        <v>15.89590717384417</v>
+        <v>237.4952311751341</v>
       </c>
       <c r="M20" t="n">
-        <v>191.6526205901301</v>
+        <v>237.4952311751341</v>
       </c>
       <c r="N20" t="n">
-        <v>388.3644718664518</v>
+        <v>434.2070824514554</v>
       </c>
       <c r="O20" t="n">
-        <v>585.0763231427734</v>
+        <v>630.9189337277768</v>
       </c>
       <c r="P20" t="n">
-        <v>748.952748107204</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="Q20" t="n">
-        <v>794.7953586922085</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="R20" t="n">
-        <v>794.7953586922085</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="S20" t="n">
-        <v>794.7953586922085</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="T20" t="n">
-        <v>794.7953586922085</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="U20" t="n">
-        <v>794.7953586922085</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="V20" t="n">
-        <v>766.9707896023706</v>
+        <v>766.9707896023697</v>
       </c>
       <c r="W20" t="n">
-        <v>717.4404525859892</v>
+        <v>717.4404525859885</v>
       </c>
       <c r="X20" t="n">
-        <v>647.2130125786425</v>
+        <v>647.2130125786416</v>
       </c>
       <c r="Y20" t="n">
-        <v>560.3119988565636</v>
+        <v>560.3119988565627</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.89590717384417</v>
+        <v>154.344985962865</v>
       </c>
       <c r="C21" t="n">
-        <v>15.89590717384417</v>
+        <v>154.344985962865</v>
       </c>
       <c r="D21" t="n">
-        <v>15.89590717384417</v>
+        <v>154.344985962865</v>
       </c>
       <c r="E21" t="n">
-        <v>15.89590717384417</v>
+        <v>154.344985962865</v>
       </c>
       <c r="F21" t="n">
-        <v>15.89590717384417</v>
+        <v>154.344985962865</v>
       </c>
       <c r="G21" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="H21" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I21" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J21" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K21" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="L21" t="n">
-        <v>100.0162341137483</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="M21" t="n">
-        <v>100.0162341137483</v>
+        <v>212.6077584501655</v>
       </c>
       <c r="N21" t="n">
-        <v>296.72808539007</v>
+        <v>409.3196097264868</v>
       </c>
       <c r="O21" t="n">
-        <v>493.4399366663916</v>
+        <v>606.0314610028081</v>
       </c>
       <c r="P21" t="n">
-        <v>690.1517879427132</v>
+        <v>690.1517879427121</v>
       </c>
       <c r="Q21" t="n">
-        <v>794.7953586922085</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="R21" t="n">
-        <v>711.1188348201657</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="S21" t="n">
-        <v>711.1188348201657</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="T21" t="n">
-        <v>711.1188348201657</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="U21" t="n">
-        <v>510.4129361605171</v>
+        <v>594.089460032559</v>
       </c>
       <c r="V21" t="n">
-        <v>510.4129361605171</v>
+        <v>555.7567832821617</v>
       </c>
       <c r="W21" t="n">
-        <v>417.3077044931414</v>
+        <v>355.0508846225133</v>
       </c>
       <c r="X21" t="n">
-        <v>216.6018058334928</v>
+        <v>355.0508846225133</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.89590717384417</v>
+        <v>154.344985962865</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="C22" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="D22" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="E22" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="F22" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="G22" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="H22" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I22" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J22" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K22" t="n">
-        <v>20.74594372277245</v>
+        <v>20.74594372277243</v>
       </c>
       <c r="L22" t="n">
-        <v>82.47875529922224</v>
+        <v>82.47875529922223</v>
       </c>
       <c r="M22" t="n">
         <v>157.9564726222215</v>
@@ -5941,19 +5941,19 @@
         <v>319.4411870795273</v>
       </c>
       <c r="U22" t="n">
-        <v>118.7352884198786</v>
+        <v>216.6018058334925</v>
       </c>
       <c r="V22" t="n">
-        <v>118.7352884198786</v>
+        <v>216.6018058334925</v>
       </c>
       <c r="W22" t="n">
-        <v>118.7352884198786</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="X22" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>476.9504770461745</v>
+        <v>476.9504770461739</v>
       </c>
       <c r="C23" t="n">
-        <v>411.2262783594956</v>
+        <v>411.226278359495</v>
       </c>
       <c r="D23" t="n">
-        <v>356.1988980064779</v>
+        <v>356.1988980064775</v>
       </c>
       <c r="E23" t="n">
-        <v>273.6489636619664</v>
+        <v>273.6489636619663</v>
       </c>
       <c r="F23" t="n">
-        <v>165.9013771260916</v>
+        <v>165.901377126092</v>
       </c>
       <c r="G23" t="n">
-        <v>50.16856350228321</v>
+        <v>50.16856350228297</v>
       </c>
       <c r="H23" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I23" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J23" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K23" t="n">
-        <v>15.89590717384417</v>
+        <v>184.5612501556401</v>
       </c>
       <c r="L23" t="n">
-        <v>15.89590717384417</v>
+        <v>191.6526205901295</v>
       </c>
       <c r="M23" t="n">
-        <v>191.6526205901301</v>
+        <v>388.3644718664508</v>
       </c>
       <c r="N23" t="n">
-        <v>388.3644718664518</v>
+        <v>585.0763231427721</v>
       </c>
       <c r="O23" t="n">
-        <v>585.0763231427734</v>
+        <v>585.0763231427721</v>
       </c>
       <c r="P23" t="n">
-        <v>748.952748107204</v>
+        <v>748.9527481072028</v>
       </c>
       <c r="Q23" t="n">
-        <v>794.7953586922085</v>
+        <v>794.7953586922073</v>
       </c>
       <c r="R23" t="n">
-        <v>794.7953586922085</v>
+        <v>794.7953586922073</v>
       </c>
       <c r="S23" t="n">
-        <v>794.7953586922085</v>
+        <v>794.7953586922073</v>
       </c>
       <c r="T23" t="n">
-        <v>794.7953586922085</v>
+        <v>794.7953586922073</v>
       </c>
       <c r="U23" t="n">
-        <v>794.7953586922085</v>
+        <v>794.7953586922073</v>
       </c>
       <c r="V23" t="n">
-        <v>766.9707896023707</v>
+        <v>766.9707896023697</v>
       </c>
       <c r="W23" t="n">
-        <v>717.4404525859893</v>
+        <v>717.4404525859882</v>
       </c>
       <c r="X23" t="n">
-        <v>647.2130125786422</v>
+        <v>647.2130125786414</v>
       </c>
       <c r="Y23" t="n">
-        <v>560.3119988565635</v>
+        <v>560.3119988565627</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>164.8303168350954</v>
+        <v>141.5230130003094</v>
       </c>
       <c r="C24" t="n">
-        <v>164.8303168350954</v>
+        <v>141.5230130003094</v>
       </c>
       <c r="D24" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="E24" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="F24" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="G24" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="H24" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I24" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J24" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K24" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="L24" t="n">
-        <v>15.89590717384417</v>
+        <v>212.6077584501654</v>
       </c>
       <c r="M24" t="n">
-        <v>100.0162341137483</v>
+        <v>212.6077584501654</v>
       </c>
       <c r="N24" t="n">
-        <v>296.72808539007</v>
+        <v>296.7280853900693</v>
       </c>
       <c r="O24" t="n">
-        <v>493.4399366663916</v>
+        <v>493.4399366663906</v>
       </c>
       <c r="P24" t="n">
-        <v>690.1517879427132</v>
+        <v>690.151787942712</v>
       </c>
       <c r="Q24" t="n">
-        <v>794.7953586922085</v>
+        <v>794.7953586922073</v>
       </c>
       <c r="R24" t="n">
-        <v>711.1188348201657</v>
+        <v>711.1188348201645</v>
       </c>
       <c r="S24" t="n">
-        <v>711.1188348201657</v>
+        <v>542.9348103196061</v>
       </c>
       <c r="T24" t="n">
-        <v>533.751552514812</v>
+        <v>542.9348103196061</v>
       </c>
       <c r="U24" t="n">
-        <v>533.751552514812</v>
+        <v>542.9348103196061</v>
       </c>
       <c r="V24" t="n">
-        <v>533.751552514812</v>
+        <v>342.2289116599578</v>
       </c>
       <c r="W24" t="n">
-        <v>533.751552514812</v>
+        <v>342.2289116599578</v>
       </c>
       <c r="X24" t="n">
-        <v>333.0456538551634</v>
+        <v>141.5230130003094</v>
       </c>
       <c r="Y24" t="n">
-        <v>333.0456538551634</v>
+        <v>141.5230130003094</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.89590717384417</v>
+        <v>118.7352884198789</v>
       </c>
       <c r="C25" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="D25" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="E25" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="F25" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="G25" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="H25" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I25" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J25" t="n">
-        <v>15.89590717384417</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K25" t="n">
-        <v>20.74594372277245</v>
+        <v>20.74594372277242</v>
       </c>
       <c r="L25" t="n">
-        <v>82.47875529922224</v>
+        <v>82.47875529922221</v>
       </c>
       <c r="M25" t="n">
         <v>157.9564726222215</v>
@@ -6166,31 +6166,31 @@
         <v>319.4411870795273</v>
       </c>
       <c r="Q25" t="n">
-        <v>252.1879277620848</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="R25" t="n">
-        <v>252.1879277620848</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="S25" t="n">
-        <v>252.1879277620848</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="T25" t="n">
-        <v>252.1879277620848</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="U25" t="n">
-        <v>252.1879277620848</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="V25" t="n">
-        <v>197.5443720040839</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="W25" t="n">
-        <v>197.5443720040839</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="X25" t="n">
-        <v>197.5443720040839</v>
+        <v>118.7352884198789</v>
       </c>
       <c r="Y25" t="n">
-        <v>197.5443720040839</v>
+        <v>118.7352884198789</v>
       </c>
     </row>
     <row r="26">
@@ -6203,34 +6203,34 @@
         <v>1474.852168841945</v>
       </c>
       <c r="C26" t="n">
-        <v>1256.396813742803</v>
+        <v>1256.396813742802</v>
       </c>
       <c r="D26" t="n">
         <v>1048.638276977321</v>
       </c>
       <c r="E26" t="n">
-        <v>813.3571862203462</v>
+        <v>813.3571862203457</v>
       </c>
       <c r="F26" t="n">
-        <v>552.8784432720079</v>
+        <v>552.8784432720074</v>
       </c>
       <c r="G26" t="n">
-        <v>284.414473235736</v>
+        <v>284.4144732357354</v>
       </c>
       <c r="H26" t="n">
-        <v>97.41066049483339</v>
+        <v>97.41066049483277</v>
       </c>
       <c r="I26" t="n">
         <v>55.6169964674375</v>
       </c>
       <c r="J26" t="n">
-        <v>235.102933102391</v>
+        <v>235.1029331023915</v>
       </c>
       <c r="K26" t="n">
-        <v>551.2803454048147</v>
+        <v>551.2803454048153</v>
       </c>
       <c r="L26" t="n">
-        <v>960.3133146464269</v>
+        <v>960.3133146464274</v>
       </c>
       <c r="M26" t="n">
         <v>1415.424320284889</v>
@@ -6254,22 +6254,22 @@
         <v>2732.225106987912</v>
       </c>
       <c r="T26" t="n">
-        <v>2659.688041972995</v>
+        <v>2659.688041972994</v>
       </c>
       <c r="U26" t="n">
         <v>2556.352832550297</v>
       </c>
       <c r="V26" t="n">
-        <v>2375.797107047996</v>
+        <v>2375.797107047995</v>
       </c>
       <c r="W26" t="n">
-        <v>2173.535613619151</v>
+        <v>2173.53561361915</v>
       </c>
       <c r="X26" t="n">
         <v>1950.57701719934</v>
       </c>
       <c r="Y26" t="n">
-        <v>1710.944847064798</v>
+        <v>1710.944847064797</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>398.1243440584656</v>
+        <v>247.6171822171964</v>
       </c>
       <c r="C27" t="n">
-        <v>374.1784766186078</v>
+        <v>214.854451472893</v>
       </c>
       <c r="D27" t="n">
-        <v>374.1784766186078</v>
+        <v>214.854451472893</v>
       </c>
       <c r="E27" t="n">
-        <v>365.4481834544215</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="F27" t="n">
-        <v>218.9136254813065</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="G27" t="n">
-        <v>80.46454669228564</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="H27" t="n">
-        <v>80.46454669228564</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="I27" t="n">
         <v>55.6169964674375</v>
@@ -6342,13 +6342,13 @@
         <v>1085.681674935953</v>
       </c>
       <c r="W27" t="n">
-        <v>981.9514800490203</v>
+        <v>831.4443182077512</v>
       </c>
       <c r="X27" t="n">
-        <v>774.0999798434875</v>
+        <v>623.5928180022183</v>
       </c>
       <c r="Y27" t="n">
-        <v>566.3396810785337</v>
+        <v>415.8325192372644</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.77865245295446</v>
+        <v>100.3210987534791</v>
       </c>
       <c r="C28" t="n">
-        <v>79.34963136631676</v>
+        <v>81.89207766684133</v>
       </c>
       <c r="D28" t="n">
-        <v>79.73238239891447</v>
+        <v>82.27482869943901</v>
       </c>
       <c r="E28" t="n">
-        <v>82.27482869943893</v>
+        <v>82.27482869943901</v>
       </c>
       <c r="F28" t="n">
-        <v>85.82006047736493</v>
+        <v>85.82006047736499</v>
       </c>
       <c r="G28" t="n">
-        <v>66.87557128953446</v>
+        <v>66.87557128953449</v>
       </c>
       <c r="H28" t="n">
         <v>55.6169964674375</v>
       </c>
       <c r="I28" t="n">
-        <v>56.19512417614196</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="J28" t="n">
-        <v>127.649107042892</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="K28" t="n">
-        <v>132.4991435918202</v>
+        <v>88.12098505875625</v>
       </c>
       <c r="L28" t="n">
-        <v>194.23195516827</v>
+        <v>149.853796635206</v>
       </c>
       <c r="M28" t="n">
-        <v>417.2217418118972</v>
+        <v>372.8435832788333</v>
       </c>
       <c r="N28" t="n">
-        <v>496.3393841398019</v>
+        <v>451.9612256067379</v>
       </c>
       <c r="O28" t="n">
-        <v>572.3953515000528</v>
+        <v>656.5349476641802</v>
       </c>
       <c r="P28" t="n">
-        <v>745.2128402132673</v>
+        <v>829.3524363773947</v>
       </c>
       <c r="Q28" t="n">
-        <v>826.8099900768699</v>
+        <v>829.3524363773947</v>
       </c>
       <c r="R28" t="n">
-        <v>808.8536397548761</v>
+        <v>811.3960860554008</v>
       </c>
       <c r="S28" t="n">
-        <v>737.1978518582413</v>
+        <v>739.740298158766</v>
       </c>
       <c r="T28" t="n">
-        <v>658.4661912709023</v>
+        <v>661.008637571427</v>
       </c>
       <c r="U28" t="n">
-        <v>519.7750963612431</v>
+        <v>522.3175426617678</v>
       </c>
       <c r="V28" t="n">
-        <v>415.5977699966254</v>
+        <v>418.1402162971501</v>
       </c>
       <c r="W28" t="n">
-        <v>276.687761800934</v>
+        <v>279.2302081014586</v>
       </c>
       <c r="X28" t="n">
-        <v>199.2053727441859</v>
+        <v>201.7478190447105</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.919955441925</v>
+        <v>131.4624017424496</v>
       </c>
     </row>
     <row r="29">
@@ -6446,19 +6446,19 @@
         <v>1048.638276977321</v>
       </c>
       <c r="E29" t="n">
-        <v>813.3571862203463</v>
+        <v>813.3571862203462</v>
       </c>
       <c r="F29" t="n">
-        <v>552.878443272008</v>
+        <v>552.8784432720079</v>
       </c>
       <c r="G29" t="n">
         <v>284.414473235736</v>
       </c>
       <c r="H29" t="n">
-        <v>97.41066049483349</v>
+        <v>97.41066049483345</v>
       </c>
       <c r="I29" t="n">
-        <v>55.61699646743752</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="J29" t="n">
         <v>235.1029331023914</v>
@@ -6470,28 +6470,28 @@
         <v>960.3133146464274</v>
       </c>
       <c r="M29" t="n">
-        <v>1415.42432028489</v>
+        <v>1415.424320284889</v>
       </c>
       <c r="N29" t="n">
-        <v>1860.880600751949</v>
+        <v>1860.880600751948</v>
       </c>
       <c r="O29" t="n">
         <v>2244.545302124367</v>
       </c>
       <c r="P29" t="n">
-        <v>2555.933796409426</v>
+        <v>2555.933796409425</v>
       </c>
       <c r="Q29" t="n">
-        <v>2749.288476315059</v>
+        <v>2749.288476315058</v>
       </c>
       <c r="R29" t="n">
-        <v>2780.849823371876</v>
+        <v>2780.849823371875</v>
       </c>
       <c r="S29" t="n">
-        <v>2732.225106987913</v>
+        <v>2732.225106987912</v>
       </c>
       <c r="T29" t="n">
-        <v>2659.688041972996</v>
+        <v>2659.688041972995</v>
       </c>
       <c r="U29" t="n">
         <v>2556.352832550297</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>632.3080297717781</v>
+        <v>387.734728574002</v>
       </c>
       <c r="C30" t="n">
-        <v>457.8550004906512</v>
+        <v>213.281699292875</v>
       </c>
       <c r="D30" t="n">
-        <v>308.9205908293999</v>
+        <v>64.34728963162377</v>
       </c>
       <c r="E30" t="n">
-        <v>300.1902976652136</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="F30" t="n">
-        <v>300.1902976652136</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="G30" t="n">
-        <v>161.7412188761927</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="H30" t="n">
-        <v>55.61699646743752</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="I30" t="n">
-        <v>55.61699646743752</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="J30" t="n">
-        <v>80.96703311392729</v>
+        <v>80.96703311392727</v>
       </c>
       <c r="K30" t="n">
         <v>250.9151265520191</v>
@@ -6564,28 +6564,28 @@
         <v>2001.950371853512</v>
       </c>
       <c r="R30" t="n">
-        <v>2001.950371853512</v>
+        <v>1918.273847981469</v>
       </c>
       <c r="S30" t="n">
-        <v>1833.766347352953</v>
+        <v>1750.08982348091</v>
       </c>
       <c r="T30" t="n">
-        <v>1632.715389340957</v>
+        <v>1549.038865468914</v>
       </c>
       <c r="U30" t="n">
-        <v>1555.017468881008</v>
+        <v>1320.833783167695</v>
       </c>
       <c r="V30" t="n">
-        <v>1319.865360649265</v>
+        <v>1085.681674935953</v>
       </c>
       <c r="W30" t="n">
-        <v>1065.628003921064</v>
+        <v>831.4443182077512</v>
       </c>
       <c r="X30" t="n">
-        <v>1008.2836655568</v>
+        <v>763.710364359024</v>
       </c>
       <c r="Y30" t="n">
-        <v>800.5233667918462</v>
+        <v>555.9500655940701</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.77865245295447</v>
+        <v>97.77865245295429</v>
       </c>
       <c r="C31" t="n">
-        <v>79.34963136631677</v>
+        <v>79.34963136631661</v>
       </c>
       <c r="D31" t="n">
-        <v>79.73238239891448</v>
+        <v>79.73238239891435</v>
       </c>
       <c r="E31" t="n">
-        <v>82.27482869943894</v>
+        <v>82.27482869943884</v>
       </c>
       <c r="F31" t="n">
-        <v>85.82006047736495</v>
+        <v>85.82006047736488</v>
       </c>
       <c r="G31" t="n">
-        <v>66.87557128953448</v>
+        <v>66.87557128953443</v>
       </c>
       <c r="H31" t="n">
-        <v>55.61699646743752</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="I31" t="n">
-        <v>55.61699646743752</v>
+        <v>56.19512417614199</v>
       </c>
       <c r="J31" t="n">
-        <v>55.61699646743752</v>
+        <v>127.649107042892</v>
       </c>
       <c r="K31" t="n">
-        <v>60.4670330163658</v>
+        <v>151.493458215256</v>
       </c>
       <c r="L31" t="n">
-        <v>122.1998445928156</v>
+        <v>360.7383391123337</v>
       </c>
       <c r="M31" t="n">
-        <v>345.1896312364428</v>
+        <v>436.216056435333</v>
       </c>
       <c r="N31" t="n">
-        <v>424.3072735643475</v>
+        <v>662.8457680838657</v>
       </c>
       <c r="O31" t="n">
-        <v>572.3953515000528</v>
+        <v>719.90742082068</v>
       </c>
       <c r="P31" t="n">
-        <v>745.2128402132673</v>
+        <v>745.2128402132666</v>
       </c>
       <c r="Q31" t="n">
-        <v>826.8099900768699</v>
+        <v>826.8099900768692</v>
       </c>
       <c r="R31" t="n">
-        <v>808.8536397548761</v>
+        <v>808.8536397548754</v>
       </c>
       <c r="S31" t="n">
-        <v>737.1978518582413</v>
+        <v>737.1978518582407</v>
       </c>
       <c r="T31" t="n">
-        <v>658.4661912709023</v>
+        <v>658.4661912709018</v>
       </c>
       <c r="U31" t="n">
-        <v>519.7750963612431</v>
+        <v>519.7750963612427</v>
       </c>
       <c r="V31" t="n">
-        <v>415.5977699966254</v>
+        <v>415.5977699966251</v>
       </c>
       <c r="W31" t="n">
-        <v>276.687761800934</v>
+        <v>276.6877618009337</v>
       </c>
       <c r="X31" t="n">
-        <v>199.2053727441859</v>
+        <v>199.2053727441856</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.919955441925</v>
+        <v>128.9199554419247</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1474.852168841946</v>
+        <v>1474.852168841945</v>
       </c>
       <c r="C32" t="n">
-        <v>1256.396813742803</v>
+        <v>1256.396813742802</v>
       </c>
       <c r="D32" t="n">
         <v>1048.638276977321</v>
       </c>
       <c r="E32" t="n">
-        <v>813.3571862203457</v>
+        <v>813.3571862203462</v>
       </c>
       <c r="F32" t="n">
-        <v>552.8784432720074</v>
+        <v>552.8784432720079</v>
       </c>
       <c r="G32" t="n">
-        <v>284.4144732357354</v>
+        <v>284.414473235736</v>
       </c>
       <c r="H32" t="n">
-        <v>97.41066049483354</v>
+        <v>97.41066049483344</v>
       </c>
       <c r="I32" t="n">
-        <v>55.61699646743752</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="J32" t="n">
-        <v>235.1029331023913</v>
+        <v>235.1029331023914</v>
       </c>
       <c r="K32" t="n">
-        <v>551.2803454048151</v>
+        <v>551.2803454048153</v>
       </c>
       <c r="L32" t="n">
-        <v>960.3133146464272</v>
+        <v>960.3133146464274</v>
       </c>
       <c r="M32" t="n">
-        <v>1415.42432028489</v>
+        <v>1415.424320284889</v>
       </c>
       <c r="N32" t="n">
-        <v>1860.880600751949</v>
+        <v>1860.880600751947</v>
       </c>
       <c r="O32" t="n">
         <v>2244.545302124367</v>
       </c>
       <c r="P32" t="n">
-        <v>2555.933796409426</v>
+        <v>2555.933796409425</v>
       </c>
       <c r="Q32" t="n">
-        <v>2749.288476315059</v>
+        <v>2749.288476315058</v>
       </c>
       <c r="R32" t="n">
-        <v>2780.849823371876</v>
+        <v>2780.849823371875</v>
       </c>
       <c r="S32" t="n">
         <v>2732.225106987913</v>
       </c>
       <c r="T32" t="n">
-        <v>2659.688041972996</v>
+        <v>2659.688041972995</v>
       </c>
       <c r="U32" t="n">
-        <v>2556.352832550298</v>
+        <v>2556.352832550297</v>
       </c>
       <c r="V32" t="n">
-        <v>2375.797107047996</v>
+        <v>2375.797107047995</v>
       </c>
       <c r="W32" t="n">
-        <v>2173.535613619151</v>
+        <v>2173.53561361915</v>
       </c>
       <c r="X32" t="n">
-        <v>1950.577017199341</v>
+        <v>1950.57701719934</v>
       </c>
       <c r="Y32" t="n">
-        <v>1710.944847064798</v>
+        <v>1710.944847064797</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>398.1243440584656</v>
+        <v>398.1243440584659</v>
       </c>
       <c r="C33" t="n">
-        <v>374.1784766186077</v>
+        <v>223.6713147773388</v>
       </c>
       <c r="D33" t="n">
-        <v>225.2440669573564</v>
+        <v>223.6713147773388</v>
       </c>
       <c r="E33" t="n">
-        <v>66.00661195190094</v>
+        <v>214.9410216131526</v>
       </c>
       <c r="F33" t="n">
-        <v>66.00661195190094</v>
+        <v>68.40646364003754</v>
       </c>
       <c r="G33" t="n">
-        <v>66.00661195190094</v>
+        <v>68.40646364003754</v>
       </c>
       <c r="H33" t="n">
-        <v>66.00661195190094</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="I33" t="n">
-        <v>55.61699646743752</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="J33" t="n">
-        <v>80.96703311392729</v>
+        <v>80.96703311392727</v>
       </c>
       <c r="K33" t="n">
         <v>250.9151265520191</v>
@@ -6804,25 +6804,25 @@
         <v>1918.273847981469</v>
       </c>
       <c r="S33" t="n">
-        <v>1750.08982348091</v>
+        <v>1900.59698532218</v>
       </c>
       <c r="T33" t="n">
-        <v>1549.038865468914</v>
+        <v>1699.546027310183</v>
       </c>
       <c r="U33" t="n">
-        <v>1320.833783167695</v>
+        <v>1471.340945008965</v>
       </c>
       <c r="V33" t="n">
-        <v>1085.681674935953</v>
+        <v>1236.188836777222</v>
       </c>
       <c r="W33" t="n">
-        <v>831.4443182077512</v>
+        <v>981.9514800490206</v>
       </c>
       <c r="X33" t="n">
-        <v>623.5928180022183</v>
+        <v>774.0999798434877</v>
       </c>
       <c r="Y33" t="n">
-        <v>415.8325192372644</v>
+        <v>566.3396810785339</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.77865245295482</v>
+        <v>100.7038497860765</v>
       </c>
       <c r="C34" t="n">
-        <v>79.34963136631706</v>
+        <v>82.27482869943884</v>
       </c>
       <c r="D34" t="n">
-        <v>79.73238239891471</v>
+        <v>82.27482869943884</v>
       </c>
       <c r="E34" t="n">
-        <v>82.27482869943911</v>
+        <v>82.27482869943884</v>
       </c>
       <c r="F34" t="n">
-        <v>85.82006047736506</v>
+        <v>85.82006047736488</v>
       </c>
       <c r="G34" t="n">
-        <v>66.87557128953453</v>
+        <v>66.87557128953443</v>
       </c>
       <c r="H34" t="n">
-        <v>55.61699646743752</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="I34" t="n">
-        <v>56.19512417614192</v>
+        <v>56.19512417614199</v>
       </c>
       <c r="J34" t="n">
-        <v>56.19512417614192</v>
+        <v>56.19512417614199</v>
       </c>
       <c r="K34" t="n">
-        <v>151.4934582152575</v>
+        <v>61.04516072507027</v>
       </c>
       <c r="L34" t="n">
-        <v>360.7383391123352</v>
+        <v>270.290041622148</v>
       </c>
       <c r="M34" t="n">
-        <v>436.2160564353345</v>
+        <v>439.1412537684552</v>
       </c>
       <c r="N34" t="n">
-        <v>515.3336987632391</v>
+        <v>518.2588960963599</v>
       </c>
       <c r="O34" t="n">
-        <v>719.9074208206814</v>
+        <v>722.8326181538023</v>
       </c>
       <c r="P34" t="n">
-        <v>745.212840213268</v>
+        <v>748.1380375463889</v>
       </c>
       <c r="Q34" t="n">
-        <v>826.8099900768706</v>
+        <v>829.7351874099915</v>
       </c>
       <c r="R34" t="n">
-        <v>808.8536397548767</v>
+        <v>811.7788370879977</v>
       </c>
       <c r="S34" t="n">
-        <v>737.1978518582418</v>
+        <v>740.123049191363</v>
       </c>
       <c r="T34" t="n">
-        <v>658.4661912709029</v>
+        <v>661.3913886040241</v>
       </c>
       <c r="U34" t="n">
-        <v>519.7750963612436</v>
+        <v>522.700293694365</v>
       </c>
       <c r="V34" t="n">
-        <v>415.597769996626</v>
+        <v>418.5229673297473</v>
       </c>
       <c r="W34" t="n">
-        <v>276.6877618009345</v>
+        <v>279.6129591340559</v>
       </c>
       <c r="X34" t="n">
-        <v>199.2053727441863</v>
+        <v>202.1305700773079</v>
       </c>
       <c r="Y34" t="n">
-        <v>128.9199554419254</v>
+        <v>131.845152775047</v>
       </c>
     </row>
     <row r="35">
@@ -6914,46 +6914,46 @@
         <v>1099.402103283626</v>
       </c>
       <c r="C35" t="n">
-        <v>933.9068305773296</v>
+        <v>933.9068305773303</v>
       </c>
       <c r="D35" t="n">
-        <v>779.1083762046949</v>
+        <v>779.1083762046956</v>
       </c>
       <c r="E35" t="n">
-        <v>596.7873678405663</v>
+        <v>596.787367840567</v>
       </c>
       <c r="F35" t="n">
-        <v>389.2687072850745</v>
+        <v>389.2687072850751</v>
       </c>
       <c r="G35" t="n">
         <v>173.7648196416495</v>
       </c>
       <c r="H35" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I35" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J35" t="n">
-        <v>71.69495660791924</v>
+        <v>71.69495660791927</v>
       </c>
       <c r="K35" t="n">
-        <v>240.3602995897151</v>
+        <v>385.9838875839833</v>
       </c>
       <c r="L35" t="n">
-        <v>501.8811995106993</v>
+        <v>647.5047875049675</v>
       </c>
       <c r="M35" t="n">
-        <v>809.4801358285332</v>
+        <v>955.1037238228015</v>
       </c>
       <c r="N35" t="n">
-        <v>1107.424346974964</v>
+        <v>1253.047934969232</v>
       </c>
       <c r="O35" t="n">
-        <v>1343.576979026755</v>
+        <v>1489.200567021023</v>
       </c>
       <c r="P35" t="n">
-        <v>1706.871650065042</v>
+        <v>1653.076991985454</v>
       </c>
       <c r="Q35" t="n">
         <v>1898.337848644315</v>
@@ -6962,16 +6962,16 @@
         <v>1981.805372454361</v>
       </c>
       <c r="S35" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="T35" t="n">
-        <v>1966.477482057596</v>
+        <v>1966.477482057597</v>
       </c>
       <c r="U35" t="n">
-        <v>1916.102355027745</v>
+        <v>1916.102355027746</v>
       </c>
       <c r="V35" t="n">
-        <v>1788.50671191829</v>
+        <v>1788.506711918291</v>
       </c>
       <c r="W35" t="n">
         <v>1639.205300882292</v>
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>435.1885192774681</v>
+        <v>554.3557267067107</v>
       </c>
       <c r="C36" t="n">
-        <v>260.735489996341</v>
+        <v>379.9026974255837</v>
       </c>
       <c r="D36" t="n">
-        <v>260.735489996341</v>
+        <v>230.9682877643324</v>
       </c>
       <c r="E36" t="n">
-        <v>101.4980349908855</v>
+        <v>230.9682877643324</v>
       </c>
       <c r="F36" t="n">
-        <v>39.72108929359335</v>
+        <v>230.9682877643324</v>
       </c>
       <c r="G36" t="n">
-        <v>39.72108929359335</v>
+        <v>230.9682877643324</v>
       </c>
       <c r="H36" t="n">
-        <v>39.72108929359335</v>
+        <v>120.3202314511084</v>
       </c>
       <c r="I36" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J36" t="n">
-        <v>65.07112594008316</v>
+        <v>65.07112594008314</v>
       </c>
       <c r="K36" t="n">
         <v>235.019219378175</v>
       </c>
       <c r="L36" t="n">
-        <v>524.939800189879</v>
+        <v>524.9398001898792</v>
       </c>
       <c r="M36" t="n">
-        <v>915.2426649670832</v>
+        <v>915.2426649670833</v>
       </c>
       <c r="N36" t="n">
         <v>1331.582698579977</v>
@@ -7035,31 +7035,31 @@
         <v>1881.410893930172</v>
       </c>
       <c r="Q36" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="R36" t="n">
         <v>1902.377940807625</v>
       </c>
       <c r="S36" t="n">
-        <v>1734.193916307066</v>
+        <v>1888.613030950356</v>
       </c>
       <c r="T36" t="n">
-        <v>1533.14295829507</v>
+        <v>1687.56207293836</v>
       </c>
       <c r="U36" t="n">
-        <v>1304.937875993851</v>
+        <v>1459.356990637142</v>
       </c>
       <c r="V36" t="n">
-        <v>1069.785767762109</v>
+        <v>1224.204882405399</v>
       </c>
       <c r="W36" t="n">
-        <v>815.5484110339071</v>
+        <v>969.9675256771975</v>
       </c>
       <c r="X36" t="n">
-        <v>607.6969108283743</v>
+        <v>762.1160254716647</v>
       </c>
       <c r="Y36" t="n">
-        <v>603.4038562975361</v>
+        <v>554.3557267067107</v>
       </c>
     </row>
     <row r="37">
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="C37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="D37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="E37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="F37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="G37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="H37" t="n">
-        <v>45.38891695093596</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I37" t="n">
-        <v>45.38891695093596</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J37" t="n">
-        <v>45.38891695093596</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="K37" t="n">
-        <v>50.23895349986422</v>
+        <v>44.57112584252164</v>
       </c>
       <c r="L37" t="n">
-        <v>111.971765076314</v>
+        <v>106.3039374189714</v>
       </c>
       <c r="M37" t="n">
-        <v>187.4494823993133</v>
+        <v>181.7816547419707</v>
       </c>
       <c r="N37" t="n">
-        <v>266.5671247272179</v>
+        <v>266.5671247272178</v>
       </c>
       <c r="O37" t="n">
-        <v>323.6287774640323</v>
+        <v>323.6287774640322</v>
       </c>
       <c r="P37" t="n">
         <v>348.9341968566189</v>
@@ -7135,10 +7135,10 @@
         <v>81.56873086690939</v>
       </c>
       <c r="X37" t="n">
-        <v>57.04642420300775</v>
+        <v>57.04642420300776</v>
       </c>
       <c r="Y37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
     </row>
     <row r="38">
@@ -7151,55 +7151,55 @@
         <v>1099.402103283626</v>
       </c>
       <c r="C38" t="n">
-        <v>933.9068305773302</v>
+        <v>933.9068305773297</v>
       </c>
       <c r="D38" t="n">
-        <v>779.1083762046953</v>
+        <v>779.1083762046949</v>
       </c>
       <c r="E38" t="n">
-        <v>596.7873678405667</v>
+        <v>596.7873678405663</v>
       </c>
       <c r="F38" t="n">
-        <v>389.2687072850749</v>
+        <v>389.2687072850744</v>
       </c>
       <c r="G38" t="n">
-        <v>173.7648196416495</v>
+        <v>173.7648196416496</v>
       </c>
       <c r="H38" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I38" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J38" t="n">
-        <v>71.69495660791924</v>
+        <v>71.69495660791927</v>
       </c>
       <c r="K38" t="n">
-        <v>240.3602995897151</v>
+        <v>240.3602995897152</v>
       </c>
       <c r="L38" t="n">
-        <v>535.8031574664635</v>
+        <v>501.8811995106994</v>
       </c>
       <c r="M38" t="n">
-        <v>843.4020937842974</v>
+        <v>955.1037238228015</v>
       </c>
       <c r="N38" t="n">
-        <v>1141.346304930728</v>
+        <v>1253.047934969232</v>
       </c>
       <c r="O38" t="n">
-        <v>1377.498936982519</v>
+        <v>1688.61881309488</v>
       </c>
       <c r="P38" t="n">
-        <v>1740.793608020806</v>
+        <v>1852.49523805931</v>
       </c>
       <c r="Q38" t="n">
-        <v>1986.054464679667</v>
+        <v>1898.337848644315</v>
       </c>
       <c r="R38" t="n">
-        <v>1986.054464679667</v>
+        <v>1981.805372454361</v>
       </c>
       <c r="S38" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="T38" t="n">
         <v>1966.477482057597</v>
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>363.1085282359717</v>
+        <v>299.3035552680687</v>
       </c>
       <c r="C39" t="n">
-        <v>188.6554989548446</v>
+        <v>299.3035552680687</v>
       </c>
       <c r="D39" t="n">
-        <v>39.72108929359335</v>
+        <v>150.3691456068174</v>
       </c>
       <c r="E39" t="n">
-        <v>39.72108929359335</v>
+        <v>150.3691456068174</v>
       </c>
       <c r="F39" t="n">
-        <v>39.72108929359335</v>
+        <v>150.3691456068174</v>
       </c>
       <c r="G39" t="n">
-        <v>39.72108929359335</v>
+        <v>150.3691456068174</v>
       </c>
       <c r="H39" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I39" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J39" t="n">
-        <v>65.07112594008311</v>
+        <v>65.07112594008359</v>
       </c>
       <c r="K39" t="n">
-        <v>235.0192193781749</v>
+        <v>235.0192193781754</v>
       </c>
       <c r="L39" t="n">
-        <v>524.939800189879</v>
+        <v>524.9398001898794</v>
       </c>
       <c r="M39" t="n">
-        <v>915.2426649670831</v>
+        <v>915.2426649670836</v>
       </c>
       <c r="N39" t="n">
-        <v>1331.582698579976</v>
+        <v>1331.582698579977</v>
       </c>
       <c r="O39" t="n">
         <v>1646.036812456933</v>
@@ -7272,31 +7272,31 @@
         <v>1881.410893930172</v>
       </c>
       <c r="Q39" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="R39" t="n">
         <v>1902.377940807625</v>
       </c>
       <c r="S39" t="n">
-        <v>1734.193916307066</v>
+        <v>1734.193916307067</v>
       </c>
       <c r="T39" t="n">
         <v>1533.14295829507</v>
       </c>
       <c r="U39" t="n">
-        <v>1304.937875993851</v>
+        <v>1304.937875993852</v>
       </c>
       <c r="V39" t="n">
         <v>1069.785767762109</v>
       </c>
       <c r="W39" t="n">
-        <v>815.5484110339071</v>
+        <v>815.5484110339075</v>
       </c>
       <c r="X39" t="n">
-        <v>739.0841640209935</v>
+        <v>675.2791910530907</v>
       </c>
       <c r="Y39" t="n">
-        <v>531.3238652560397</v>
+        <v>467.5188922881367</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="C40" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="D40" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="E40" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="F40" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="G40" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="H40" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I40" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J40" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="K40" t="n">
-        <v>44.57112584252162</v>
+        <v>44.57112584252164</v>
       </c>
       <c r="L40" t="n">
         <v>106.3039374189714</v>
@@ -7342,40 +7342,40 @@
         <v>181.7816547419707</v>
       </c>
       <c r="N40" t="n">
-        <v>260.8992970698753</v>
+        <v>260.8992970698754</v>
       </c>
       <c r="O40" t="n">
-        <v>317.9609498066897</v>
+        <v>317.9609498066898</v>
       </c>
       <c r="P40" t="n">
-        <v>348.9341968566191</v>
+        <v>343.2663691992765</v>
       </c>
       <c r="Q40" t="n">
-        <v>348.9341968566191</v>
+        <v>343.2663691992765</v>
       </c>
       <c r="R40" t="n">
-        <v>348.9341968566191</v>
+        <v>348.9341968566193</v>
       </c>
       <c r="S40" t="n">
-        <v>330.2384913528307</v>
+        <v>330.238491352831</v>
       </c>
       <c r="T40" t="n">
-        <v>304.4669131583383</v>
+        <v>304.4669131583385</v>
       </c>
       <c r="U40" t="n">
-        <v>218.7359006415256</v>
+        <v>218.7359006415257</v>
       </c>
       <c r="V40" t="n">
-        <v>167.5186566697544</v>
+        <v>167.5186566697545</v>
       </c>
       <c r="W40" t="n">
-        <v>81.56873086690945</v>
+        <v>81.5687308669095</v>
       </c>
       <c r="X40" t="n">
-        <v>57.04642420300778</v>
+        <v>57.04642420300782</v>
       </c>
       <c r="Y40" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
     </row>
     <row r="41">
@@ -7403,43 +7403,43 @@
         <v>173.7648196416495</v>
       </c>
       <c r="H41" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I41" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J41" t="n">
-        <v>71.69495660791924</v>
+        <v>71.69495660791927</v>
       </c>
       <c r="K41" t="n">
-        <v>240.3602995897151</v>
+        <v>240.3602995897152</v>
       </c>
       <c r="L41" t="n">
-        <v>501.8811995106993</v>
+        <v>501.8811995106994</v>
       </c>
       <c r="M41" t="n">
-        <v>809.4801358285332</v>
+        <v>809.4801358285333</v>
       </c>
       <c r="N41" t="n">
         <v>1301.028615836751</v>
       </c>
       <c r="O41" t="n">
-        <v>1576.917183056376</v>
+        <v>1537.181247888542</v>
       </c>
       <c r="P41" t="n">
-        <v>1740.793608020806</v>
+        <v>1900.47591892683</v>
       </c>
       <c r="Q41" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="R41" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="S41" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="T41" t="n">
-        <v>1966.477482057596</v>
+        <v>1966.477482057597</v>
       </c>
       <c r="U41" t="n">
         <v>1916.102355027747</v>
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>360.7086765478354</v>
+        <v>501.5576070249924</v>
       </c>
       <c r="C42" t="n">
-        <v>186.2556472667084</v>
+        <v>327.1045777438654</v>
       </c>
       <c r="D42" t="n">
-        <v>186.2556472667084</v>
+        <v>178.1701680826142</v>
       </c>
       <c r="E42" t="n">
-        <v>186.2556472667084</v>
+        <v>178.1701680826142</v>
       </c>
       <c r="F42" t="n">
-        <v>39.72108929359335</v>
+        <v>178.1701680826142</v>
       </c>
       <c r="G42" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="H42" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I42" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J42" t="n">
         <v>65.07112594008359</v>
@@ -7509,31 +7509,31 @@
         <v>1881.410893930172</v>
       </c>
       <c r="Q42" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="R42" t="n">
-        <v>1902.377940807625</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="S42" t="n">
-        <v>1734.193916307066</v>
+        <v>1817.870440179109</v>
       </c>
       <c r="T42" t="n">
-        <v>1533.14295829507</v>
+        <v>1616.819482167113</v>
       </c>
       <c r="U42" t="n">
-        <v>1304.937875993851</v>
+        <v>1388.614399865894</v>
       </c>
       <c r="V42" t="n">
-        <v>1069.785767762109</v>
+        <v>1153.462291634152</v>
       </c>
       <c r="W42" t="n">
-        <v>815.5484110339071</v>
+        <v>899.2249349059502</v>
       </c>
       <c r="X42" t="n">
-        <v>607.6969108283743</v>
+        <v>691.3734347004174</v>
       </c>
       <c r="Y42" t="n">
-        <v>528.9240135679033</v>
+        <v>669.7729440450605</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="C43" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="D43" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="E43" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="F43" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="G43" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="H43" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I43" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J43" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="K43" t="n">
-        <v>44.57112584252162</v>
+        <v>44.57112584252164</v>
       </c>
       <c r="L43" t="n">
         <v>106.3039374189714</v>
@@ -7579,16 +7579,16 @@
         <v>181.7816547419707</v>
       </c>
       <c r="N43" t="n">
-        <v>260.8992970698753</v>
+        <v>260.8992970698754</v>
       </c>
       <c r="O43" t="n">
-        <v>317.9609498066897</v>
+        <v>317.9609498066898</v>
       </c>
       <c r="P43" t="n">
-        <v>343.2663691992763</v>
+        <v>343.2663691992765</v>
       </c>
       <c r="Q43" t="n">
-        <v>348.9341968566187</v>
+        <v>343.2663691992765</v>
       </c>
       <c r="R43" t="n">
         <v>348.9341968566187</v>
@@ -7609,10 +7609,10 @@
         <v>81.56873086690933</v>
       </c>
       <c r="X43" t="n">
-        <v>57.04642420300772</v>
+        <v>57.04642420300773</v>
       </c>
       <c r="Y43" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
     </row>
     <row r="44">
@@ -7625,61 +7625,61 @@
         <v>1099.402103283626</v>
       </c>
       <c r="C44" t="n">
-        <v>933.9068305773299</v>
+        <v>933.9068305773301</v>
       </c>
       <c r="D44" t="n">
-        <v>779.1083762046951</v>
+        <v>779.1083762046953</v>
       </c>
       <c r="E44" t="n">
-        <v>596.7873678405665</v>
+        <v>596.7873678405667</v>
       </c>
       <c r="F44" t="n">
-        <v>389.2687072850747</v>
+        <v>389.2687072850749</v>
       </c>
       <c r="G44" t="n">
         <v>173.7648196416495</v>
       </c>
       <c r="H44" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I44" t="n">
-        <v>39.72108929359335</v>
+        <v>50.66529593357142</v>
       </c>
       <c r="J44" t="n">
-        <v>71.69495660791924</v>
+        <v>82.63916324789733</v>
       </c>
       <c r="K44" t="n">
-        <v>240.3602995897151</v>
+        <v>251.3045062296933</v>
       </c>
       <c r="L44" t="n">
-        <v>535.8031574664635</v>
+        <v>712.2436522245342</v>
       </c>
       <c r="M44" t="n">
-        <v>843.4020937842974</v>
+        <v>1019.842588542368</v>
       </c>
       <c r="N44" t="n">
-        <v>1141.346304930728</v>
+        <v>1511.391068550586</v>
       </c>
       <c r="O44" t="n">
-        <v>1377.498936982519</v>
+        <v>1772.086336904926</v>
       </c>
       <c r="P44" t="n">
-        <v>1740.793608020806</v>
+        <v>1935.962761869357</v>
       </c>
       <c r="Q44" t="n">
-        <v>1986.054464679667</v>
+        <v>1981.805372454361</v>
       </c>
       <c r="R44" t="n">
-        <v>1986.054464679667</v>
+        <v>1981.805372454361</v>
       </c>
       <c r="S44" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="T44" t="n">
-        <v>1966.477482057596</v>
+        <v>1966.477482057597</v>
       </c>
       <c r="U44" t="n">
-        <v>1916.102355027745</v>
+        <v>1916.102355027746</v>
       </c>
       <c r="V44" t="n">
         <v>1788.506711918291</v>
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>660.795062030448</v>
+        <v>363.1085282359717</v>
       </c>
       <c r="C45" t="n">
-        <v>486.3420327493209</v>
+        <v>188.6554989548446</v>
       </c>
       <c r="D45" t="n">
-        <v>337.4076230880697</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="E45" t="n">
-        <v>178.1701680826142</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="F45" t="n">
-        <v>178.1701680826142</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="G45" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="H45" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I45" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J45" t="n">
-        <v>65.07112594008359</v>
+        <v>65.07112594008312</v>
       </c>
       <c r="K45" t="n">
-        <v>235.0192193781754</v>
+        <v>235.019219378175</v>
       </c>
       <c r="L45" t="n">
-        <v>524.9398001898794</v>
+        <v>524.939800189879</v>
       </c>
       <c r="M45" t="n">
-        <v>915.2426649670836</v>
+        <v>915.2426649670831</v>
       </c>
       <c r="N45" t="n">
-        <v>1331.582698579977</v>
+        <v>1331.582698579976</v>
       </c>
       <c r="O45" t="n">
         <v>1646.036812456933</v>
@@ -7755,22 +7755,22 @@
         <v>1734.193916307066</v>
       </c>
       <c r="T45" t="n">
-        <v>1734.193916307066</v>
+        <v>1533.14295829507</v>
       </c>
       <c r="U45" t="n">
-        <v>1505.988834005848</v>
+        <v>1304.937875993851</v>
       </c>
       <c r="V45" t="n">
-        <v>1295.392310515089</v>
+        <v>1069.785767762109</v>
       </c>
       <c r="W45" t="n">
-        <v>1041.154953786887</v>
+        <v>946.9356642265263</v>
       </c>
       <c r="X45" t="n">
-        <v>1036.77069781547</v>
+        <v>739.0841640209935</v>
       </c>
       <c r="Y45" t="n">
-        <v>829.0103990505161</v>
+        <v>531.3238652560397</v>
       </c>
     </row>
     <row r="46">
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="C46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="D46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="E46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="F46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="G46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="H46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="K46" t="n">
-        <v>44.57112584252162</v>
+        <v>44.57112584252164</v>
       </c>
       <c r="L46" t="n">
         <v>106.3039374189714</v>
@@ -7816,13 +7816,13 @@
         <v>181.7816547419707</v>
       </c>
       <c r="N46" t="n">
-        <v>260.8992970698753</v>
+        <v>266.5671247272178</v>
       </c>
       <c r="O46" t="n">
-        <v>317.9609498066897</v>
+        <v>323.6287774640322</v>
       </c>
       <c r="P46" t="n">
-        <v>343.2663691992763</v>
+        <v>348.9341968566189</v>
       </c>
       <c r="Q46" t="n">
         <v>348.9341968566189</v>
@@ -7846,10 +7846,10 @@
         <v>81.56873086690939</v>
       </c>
       <c r="X46" t="n">
-        <v>57.04642420300775</v>
+        <v>57.04642420300776</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
     </row>
   </sheetData>
@@ -8693,16 +8693,16 @@
         <v>153.7763792562193</v>
       </c>
       <c r="L11" t="n">
-        <v>153.4986893777391</v>
+        <v>331.0307231315628</v>
       </c>
       <c r="M11" t="n">
-        <v>316.3395709660163</v>
+        <v>138.8075372121921</v>
       </c>
       <c r="N11" t="n">
-        <v>335.0920154522781</v>
+        <v>335.0920154522778</v>
       </c>
       <c r="O11" t="n">
-        <v>340.9610087622711</v>
+        <v>340.9610087622709</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8775,16 +8775,16 @@
         <v>77.99127377648543</v>
       </c>
       <c r="M12" t="n">
-        <v>156.4297730052524</v>
+        <v>156.4297730052521</v>
       </c>
       <c r="N12" t="n">
-        <v>257.4957255187337</v>
+        <v>257.4957255187334</v>
       </c>
       <c r="O12" t="n">
-        <v>274.9307408922501</v>
+        <v>274.9307408922498</v>
       </c>
       <c r="P12" t="n">
-        <v>279.4100108652727</v>
+        <v>279.4100108652724</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8930,16 +8930,16 @@
         <v>153.7763792562193</v>
       </c>
       <c r="L14" t="n">
-        <v>352.1975290507912</v>
+        <v>153.4986893777391</v>
       </c>
       <c r="M14" t="n">
-        <v>316.3395709660163</v>
+        <v>337.506376885244</v>
       </c>
       <c r="N14" t="n">
-        <v>335.0920154522781</v>
+        <v>313.9252095330497</v>
       </c>
       <c r="O14" t="n">
-        <v>142.262169089219</v>
+        <v>340.9610087622709</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9012,16 +9012,16 @@
         <v>77.99127377648543</v>
       </c>
       <c r="M15" t="n">
-        <v>156.4297730052524</v>
+        <v>156.4297730052521</v>
       </c>
       <c r="N15" t="n">
-        <v>257.4957255187337</v>
+        <v>257.4957255187334</v>
       </c>
       <c r="O15" t="n">
-        <v>274.9307408922501</v>
+        <v>274.9307408922498</v>
       </c>
       <c r="P15" t="n">
-        <v>279.4100108652727</v>
+        <v>279.4100108652724</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9170,13 +9170,13 @@
         <v>153.4986893777391</v>
       </c>
       <c r="M17" t="n">
-        <v>337.5063768852442</v>
+        <v>316.3395709660158</v>
       </c>
       <c r="N17" t="n">
-        <v>313.9252095330502</v>
+        <v>335.0920154522778</v>
       </c>
       <c r="O17" t="n">
-        <v>340.9610087622711</v>
+        <v>340.9610087622709</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9249,16 +9249,16 @@
         <v>77.99127377648543</v>
       </c>
       <c r="M18" t="n">
-        <v>156.4297730052524</v>
+        <v>270.1585854662798</v>
       </c>
       <c r="N18" t="n">
-        <v>257.4957255187337</v>
+        <v>257.4957255187334</v>
       </c>
       <c r="O18" t="n">
-        <v>274.9307408922501</v>
+        <v>161.2019284312221</v>
       </c>
       <c r="P18" t="n">
-        <v>279.4100108652727</v>
+        <v>279.4100108652724</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9401,25 +9401,25 @@
         <v>136.7997795010375</v>
       </c>
       <c r="K20" t="n">
-        <v>153.7763792562193</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>153.4986893777391</v>
+        <v>206.9673570741977</v>
       </c>
       <c r="M20" t="n">
-        <v>316.3395709660163</v>
+        <v>138.8075372121921</v>
       </c>
       <c r="N20" t="n">
-        <v>335.0920154522781</v>
+        <v>335.0920154522778</v>
       </c>
       <c r="O20" t="n">
-        <v>340.9610087622711</v>
+        <v>340.9610087622709</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>166.0093234023244</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9483,19 +9483,19 @@
         <v>92.80049616602119</v>
       </c>
       <c r="L21" t="n">
-        <v>162.9613009885098</v>
+        <v>77.99127377648543</v>
       </c>
       <c r="M21" t="n">
-        <v>71.45974579322795</v>
+        <v>270.1585854662798</v>
       </c>
       <c r="N21" t="n">
-        <v>257.4957255187337</v>
+        <v>257.4957255187334</v>
       </c>
       <c r="O21" t="n">
-        <v>274.9307408922501</v>
+        <v>274.9307408922498</v>
       </c>
       <c r="P21" t="n">
-        <v>279.4100108652727</v>
+        <v>165.6811984042448</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9638,19 +9638,19 @@
         <v>136.7997795010375</v>
       </c>
       <c r="K23" t="n">
-        <v>153.7763792562193</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>153.4986893777391</v>
+        <v>160.6616898166173</v>
       </c>
       <c r="M23" t="n">
-        <v>316.3395709660163</v>
+        <v>337.5063768852439</v>
       </c>
       <c r="N23" t="n">
-        <v>335.0920154522781</v>
+        <v>335.0920154522778</v>
       </c>
       <c r="O23" t="n">
-        <v>340.9610087622711</v>
+        <v>142.262169089219</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9720,19 +9720,19 @@
         <v>92.80049616602119</v>
       </c>
       <c r="L24" t="n">
-        <v>77.99127377648543</v>
+        <v>276.6901134495373</v>
       </c>
       <c r="M24" t="n">
-        <v>156.4297730052524</v>
+        <v>71.45974579322795</v>
       </c>
       <c r="N24" t="n">
-        <v>257.4957255187337</v>
+        <v>143.7669130577057</v>
       </c>
       <c r="O24" t="n">
-        <v>274.9307408922501</v>
+        <v>274.9307408922497</v>
       </c>
       <c r="P24" t="n">
-        <v>279.4100108652727</v>
+        <v>279.4100108652724</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>126.0910353404093</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404093</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.403679538658167</v>
+        <v>204.1025192117103</v>
       </c>
       <c r="C11" t="n">
-        <v>186.6415693192373</v>
+        <v>79.07135365794633</v>
       </c>
       <c r="D11" t="n">
         <v>176.0517191689127</v>
@@ -23276,7 +23276,7 @@
         <v>155.5045423845798</v>
       </c>
       <c r="I11" t="n">
-        <v>11.74649515820825</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>71.78306740719873</v>
+        <v>191.0997782266988</v>
       </c>
       <c r="Y11" t="n">
-        <v>207.6066162042833</v>
+        <v>8.907776531231463</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.403679538658167</v>
+        <v>204.1025192117104</v>
       </c>
       <c r="C14" t="n">
         <v>186.6415693192373</v>
@@ -23501,7 +23501,7 @@
         <v>176.0517191689127</v>
       </c>
       <c r="E14" t="n">
-        <v>203.2990476204915</v>
+        <v>203.2990476204916</v>
       </c>
       <c r="F14" t="n">
         <v>228.2447232899412</v>
@@ -23510,10 +23510,10 @@
         <v>236.1500981069955</v>
       </c>
       <c r="H14" t="n">
-        <v>155.5045423845798</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>11.74649515820824</v>
+        <v>11.74649515820829</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>71.78306740719853</v>
+        <v>28.58877011872789</v>
       </c>
       <c r="Y14" t="n">
-        <v>207.6066162042833</v>
+        <v>207.6066162042834</v>
       </c>
     </row>
     <row r="15">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-9.482308890628374e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>306415.5272794353</v>
+        <v>306415.5272794352</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>97259.69009554012</v>
+        <v>97259.69009554035</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151851.7906719068</v>
+        <v>151851.7906719066</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97259.69009554008</v>
+        <v>97259.69009554035</v>
       </c>
       <c r="M3" t="n">
-        <v>41944.38525513447</v>
+        <v>41944.3852551344</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>21941.98208274513</v>
+        <v>21941.98208274495</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,13 +26427,13 @@
         <v>339717.1480321531</v>
       </c>
       <c r="F4" t="n">
-        <v>339717.1480321531</v>
+        <v>339717.148032153</v>
       </c>
       <c r="G4" t="n">
-        <v>407016.1489321862</v>
+        <v>407016.1489321864</v>
       </c>
       <c r="H4" t="n">
-        <v>407016.1489321863</v>
+        <v>407016.1489321864</v>
       </c>
       <c r="I4" t="n">
         <v>407016.1489321863</v>
@@ -26451,13 +26451,13 @@
         <v>401149.2079382485</v>
       </c>
       <c r="N4" t="n">
-        <v>401149.2079382486</v>
+        <v>401149.2079382485</v>
       </c>
       <c r="O4" t="n">
         <v>401149.2079382485</v>
       </c>
       <c r="P4" t="n">
-        <v>401149.2079382486</v>
+        <v>401149.2079382485</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>29925.21762447106</v>
+        <v>29925.21762447104</v>
       </c>
       <c r="F5" t="n">
-        <v>29925.21762447106</v>
+        <v>29925.21762447104</v>
       </c>
       <c r="G5" t="n">
         <v>40145.87373277351</v>
@@ -26491,13 +26491,13 @@
         <v>40145.87373277351</v>
       </c>
       <c r="J5" t="n">
+        <v>57622.34556334943</v>
+      </c>
+      <c r="K5" t="n">
         <v>57622.34556334944</v>
       </c>
-      <c r="K5" t="n">
-        <v>57622.34556334945</v>
-      </c>
       <c r="L5" t="n">
-        <v>57622.34556334945</v>
+        <v>57622.34556334944</v>
       </c>
       <c r="M5" t="n">
         <v>49949.23426624526</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-486027.5905489651</v>
+        <v>-486032.0041268333</v>
       </c>
       <c r="C6" t="n">
-        <v>-486027.5905489651</v>
+        <v>-486032.0041268333</v>
       </c>
       <c r="D6" t="n">
-        <v>-486027.5905489651</v>
+        <v>-486032.0041268333</v>
       </c>
       <c r="E6" t="n">
-        <v>-676057.8929360595</v>
+        <v>-676352.8968161407</v>
       </c>
       <c r="F6" t="n">
-        <v>-369642.3656566242</v>
+        <v>-369937.3695367055</v>
       </c>
       <c r="G6" t="n">
-        <v>-544421.7127604999</v>
+        <v>-544421.7127605003</v>
       </c>
       <c r="H6" t="n">
-        <v>-447162.0226649598</v>
+        <v>-447162.0226649599</v>
       </c>
       <c r="I6" t="n">
         <v>-447162.0226649598</v>
       </c>
       <c r="J6" t="n">
-        <v>-611574.6376188432</v>
+        <v>-611574.637618843</v>
       </c>
       <c r="K6" t="n">
         <v>-459722.8469469364</v>
       </c>
       <c r="L6" t="n">
-        <v>-556982.5370424766</v>
+        <v>-556982.5370424768</v>
       </c>
       <c r="M6" t="n">
-        <v>-493042.8274596283</v>
+        <v>-493042.8274596282</v>
       </c>
       <c r="N6" t="n">
-        <v>-451098.4422044939</v>
+        <v>-451098.4422044937</v>
       </c>
       <c r="O6" t="n">
-        <v>-473040.4242872389</v>
+        <v>-473040.4242872387</v>
       </c>
       <c r="P6" t="n">
-        <v>-451098.4422044939</v>
+        <v>-451098.4422044938</v>
       </c>
     </row>
   </sheetData>
@@ -26695,16 +26695,16 @@
         <v>178.6313224517703</v>
       </c>
       <c r="F2" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="G2" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="H2" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="I2" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="J2" t="n">
         <v>149.0020902228565</v>
@@ -26768,16 +26768,16 @@
         <v>129.6775928968631</v>
       </c>
       <c r="M3" t="n">
-        <v>129.677592896863</v>
+        <v>129.6775928968631</v>
       </c>
       <c r="N3" t="n">
-        <v>129.677592896863</v>
+        <v>129.6775928968631</v>
       </c>
       <c r="O3" t="n">
-        <v>129.677592896863</v>
+        <v>129.6775928968631</v>
       </c>
       <c r="P3" t="n">
-        <v>129.677592896863</v>
+        <v>129.6775928968631</v>
       </c>
     </row>
     <row r="4">
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="F4" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="G4" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="H4" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="I4" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730518</v>
       </c>
       <c r="J4" t="n">
         <v>695.2124558429688</v>
       </c>
       <c r="K4" t="n">
-        <v>695.212455842969</v>
+        <v>695.2124558429688</v>
       </c>
       <c r="L4" t="n">
-        <v>695.212455842969</v>
+        <v>695.2124558429688</v>
       </c>
       <c r="M4" t="n">
         <v>496.5136161699169</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>121.5746126194252</v>
+        <v>121.5746126194254</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>27.42747760343136</v>
+        <v>27.4274776034311</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>121.5746126194251</v>
+        <v>121.5746126194254</v>
       </c>
       <c r="M2" t="n">
-        <v>52.43048156891808</v>
+        <v>52.430481568918</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.42747760343141</v>
+        <v>27.42747760343119</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>496.5136161699166</v>
+        <v>496.513616169917</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>121.5746126194252</v>
+        <v>121.5746126194254</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.42747760343136</v>
+        <v>27.4274776034311</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.83975863332243</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28223,16 +28223,16 @@
         <v>178.6313224517703</v>
       </c>
       <c r="U12" t="n">
-        <v>93.31460013402986</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="V12" t="n">
-        <v>34.10174747637313</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="W12" t="n">
-        <v>52.99614348786747</v>
+        <v>77.54678174939815</v>
       </c>
       <c r="X12" t="n">
-        <v>178.6313224517703</v>
+        <v>7.074145530425625</v>
       </c>
       <c r="Y12" t="n">
         <v>178.6313224517703</v>
@@ -28281,19 +28281,19 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>118.7820292408252</v>
+        <v>118.7820292408249</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>39.16508915983605</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>117.5982612942437</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R13" t="n">
-        <v>166.7788770416304</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="S13" t="n">
         <v>178.6313224517703</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="C14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="D14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="E14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="F14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="G14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="H14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="I14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>117.1219416806167</v>
       </c>
       <c r="S14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="T14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="U14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="V14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="W14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="X14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517702</v>
       </c>
     </row>
     <row r="15">
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>4.400591986800933</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T15" t="n">
-        <v>178.6313224517703</v>
+        <v>105.3374378972145</v>
       </c>
       <c r="U15" t="n">
-        <v>27.22419180515426</v>
+        <v>27.22419180515454</v>
       </c>
       <c r="V15" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="W15" t="n">
-        <v>52.99614348786747</v>
+        <v>52.99614348786776</v>
       </c>
       <c r="X15" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.6313224517703</v>
+        <v>6.98385610425251</v>
       </c>
     </row>
     <row r="16">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -28521,37 +28521,37 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>141.0608066055625</v>
       </c>
       <c r="P16" t="n">
-        <v>45.89652267315877</v>
+        <v>28.73875720523882</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.6313224517703</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R16" t="n">
-        <v>178.6313224517703</v>
+        <v>166.7788770416304</v>
       </c>
       <c r="S16" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="T16" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="U16" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="V16" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="W16" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="X16" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517702</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="C17" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="D17" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="E17" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="F17" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="G17" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="H17" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="I17" t="n">
         <v>190.3778176099785</v>
@@ -28621,16 +28621,16 @@
         <v>251.303947551327</v>
       </c>
       <c r="V17" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="W17" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="X17" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="Y17" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
     </row>
     <row r="18">
@@ -28643,7 +28643,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -28694,13 +28694,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3416087588240373</v>
+        <v>199.0404484318762</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9230314782064</v>
+        <v>27.22419180515453</v>
       </c>
       <c r="V18" t="n">
-        <v>34.10174747637313</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -28709,7 +28709,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>81.3118610091031</v>
+        <v>55.32152032436758</v>
       </c>
     </row>
     <row r="19">
@@ -28767,13 +28767,13 @@
         <v>66.58072672426806</v>
       </c>
       <c r="R19" t="n">
-        <v>64.96788960805627</v>
+        <v>166.7788770416304</v>
       </c>
       <c r="S19" t="n">
-        <v>21.2424805674728</v>
+        <v>219.9413202405249</v>
       </c>
       <c r="T19" t="n">
-        <v>226.9464342043221</v>
+        <v>125.1354467707476</v>
       </c>
       <c r="U19" t="n">
         <v>286.3062741834191</v>
@@ -28785,7 +28785,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>27.0108157159853</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="C20" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="D20" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="E20" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="F20" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="G20" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="H20" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="I20" t="n">
         <v>190.3778176099785</v>
@@ -28858,16 +28858,16 @@
         <v>251.303947551327</v>
       </c>
       <c r="V20" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="W20" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="X20" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="Y20" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
     </row>
     <row r="21">
@@ -28892,7 +28892,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>109.5415757500918</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S21" t="n">
         <v>166.5021842555528</v>
@@ -28934,19 +28934,19 @@
         <v>199.0404484318762</v>
       </c>
       <c r="U21" t="n">
-        <v>27.22419180515425</v>
+        <v>27.22419180515453</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>194.8512371665319</v>
       </c>
       <c r="W21" t="n">
-        <v>159.5208038102176</v>
+        <v>52.99614348786776</v>
       </c>
       <c r="X21" t="n">
-        <v>7.074145530425341</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.983856104252226</v>
+        <v>6.98385610425251</v>
       </c>
     </row>
     <row r="22">
@@ -29013,16 +29013,16 @@
         <v>226.9464342043221</v>
       </c>
       <c r="U22" t="n">
-        <v>87.60743451036694</v>
+        <v>184.4952867498446</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>87.82415866353915</v>
       </c>
       <c r="X22" t="n">
-        <v>123.898667955463</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="C23" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="D23" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="E23" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="F23" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="G23" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="H23" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="I23" t="n">
         <v>190.3778176099785</v>
@@ -29095,13 +29095,13 @@
         <v>251.303947551327</v>
       </c>
       <c r="V23" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="W23" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="X23" t="n">
-        <v>300.2059350711954</v>
+        <v>300.2059350711957</v>
       </c>
       <c r="Y23" t="n">
         <v>300.2059350711957</v>
@@ -29114,13 +29114,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>23.07423079643812</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -29165,22 +29165,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>23.44683894957603</v>
+        <v>199.0404484318762</v>
       </c>
       <c r="U24" t="n">
         <v>225.9230314782064</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>34.10174747637345</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>7.074145530425341</v>
+        <v>7.074145530425653</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>65.43583366505339</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R25" t="n">
         <v>166.7788770416304</v>
@@ -29253,13 +29253,13 @@
         <v>286.3062741834191</v>
       </c>
       <c r="V25" t="n">
-        <v>198.0405231234071</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>27.01081571598533</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -29354,25 +29354,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>149.0020902228565</v>
+        <v>140.2733955514554</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H27" t="n">
         <v>109.5415757500918</v>
       </c>
       <c r="I27" t="n">
-        <v>55.19407601334018</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29414,7 +29414,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -29439,7 +29439,7 @@
         <v>149.0020902228565</v>
       </c>
       <c r="E28" t="n">
-        <v>149.0020902228565</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>149.0020902228565</v>
@@ -29451,13 +29451,13 @@
         <v>149.0020902228565</v>
       </c>
       <c r="I28" t="n">
-        <v>149.0020902228565</v>
+        <v>148.4181228403268</v>
       </c>
       <c r="J28" t="n">
-        <v>149.0020902228565</v>
+        <v>76.82634995341206</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>27.9332848913035</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29469,13 +29469,13 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>19.18617638730959</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="P28" t="n">
         <v>149.0020902228565</v>
       </c>
       <c r="Q28" t="n">
-        <v>149.0020902228565</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R28" t="n">
         <v>149.0020902228565</v>
@@ -29542,13 +29542,13 @@
         <v>149.0020902228565</v>
       </c>
       <c r="M29" t="n">
-        <v>149.0020902228571</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="N29" t="n">
         <v>149.0020902228565</v>
       </c>
       <c r="O29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228562</v>
       </c>
       <c r="P29" t="n">
         <v>149.0020902228565</v>
@@ -29603,10 +29603,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H30" t="n">
-        <v>4.478595565424186</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I30" t="n">
         <v>79.79315073593983</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>82.83975863332243</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29645,7 +29645,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29654,7 +29654,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>149.0020902228565</v>
+        <v>138.7163708932376</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29688,28 +29688,28 @@
         <v>149.0020902228565</v>
       </c>
       <c r="I31" t="n">
-        <v>148.4181228403268</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="J31" t="n">
-        <v>76.82634995341206</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>19.18617638730877</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>149.0020902228565</v>
       </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
       <c r="O31" t="n">
-        <v>91.94588403928373</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>149.0020902228565</v>
@@ -29779,10 +29779,10 @@
         <v>149.0020902228565</v>
       </c>
       <c r="M32" t="n">
-        <v>149.0020902228575</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="N32" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228561</v>
       </c>
       <c r="O32" t="n">
         <v>149.0020902228565</v>
@@ -29825,28 +29825,28 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>147.4450655646388</v>
+      </c>
+      <c r="E33" t="n">
         <v>149.0020902228565</v>
       </c>
-      <c r="C33" t="n">
-        <v>149.0020902228565</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.0645880011306</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5415757500918</v>
+        <v>96.88000324921778</v>
       </c>
       <c r="I33" t="n">
-        <v>69.50743140632106</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29876,7 +29876,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -29910,10 +29910,10 @@
         <v>149.0020902228565</v>
       </c>
       <c r="D34" t="n">
-        <v>149.0020902228565</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>149.0020902228565</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>149.0020902228565</v>
@@ -29931,13 +29931,13 @@
         <v>76.82634995341206</v>
       </c>
       <c r="K34" t="n">
-        <v>91.36191665675483</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>149.0020902228565</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>94.31666143768476</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -30010,7 +30010,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>147.0945333275435</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30025,10 +30025,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
         <v>201.4325717917745</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>147.0945333275434</v>
       </c>
       <c r="R35" t="n">
         <v>201.4325717917745</v>
@@ -30062,28 +30062,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>83.91003615306464</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.0645880011306</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>79.79315073593985</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30113,7 +30113,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>152.8749234968571</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30131,7 +30131,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>201.4325717917745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30159,7 +30159,7 @@
         <v>167.7571345188087</v>
       </c>
       <c r="H37" t="n">
-        <v>165.8731577384927</v>
+        <v>160.1480792967325</v>
       </c>
       <c r="I37" t="n">
         <v>148.4181228403268</v>
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>5.725078441760019</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.58072672426808</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R37" t="n">
         <v>166.7788770416304</v>
@@ -30250,28 +30250,28 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>34.26460399572142</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>147.0945333275436</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
         <v>201.4325717917745</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="S38" t="n">
         <v>201.4325717917745</v>
-      </c>
-      <c r="R38" t="n">
-        <v>117.1219416806167</v>
-      </c>
-      <c r="S38" t="n">
-        <v>197.1405594429799</v>
       </c>
       <c r="T38" t="n">
         <v>201.4325717917745</v>
@@ -30302,7 +30302,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -30317,10 +30317,10 @@
         <v>137.0645880011306</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>79.79315073593985</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30365,7 +30365,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>130.073380660693</v>
+        <v>66.9064574224688</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30420,13 +30420,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>5.725078441760385</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.58072672426808</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R40" t="n">
-        <v>166.7788770416304</v>
+        <v>172.5039554833908</v>
       </c>
       <c r="S40" t="n">
         <v>201.4325717917745</v>
@@ -30496,13 +30496,13 @@
         <v>195.5598675371588</v>
       </c>
       <c r="O41" t="n">
-        <v>40.13730825033713</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="Q41" t="n">
-        <v>201.4325717917746</v>
+        <v>40.13730825033682</v>
       </c>
       <c r="R41" t="n">
         <v>117.1219416806167</v>
@@ -30542,22 +30542,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>109.5415757500918</v>
       </c>
       <c r="I42" t="n">
-        <v>79.79315073593985</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>127.6975274894381</v>
+        <v>184.298210028501</v>
       </c>
     </row>
     <row r="43">
@@ -30660,10 +30660,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.30580516602808</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R43" t="n">
-        <v>166.7788770416304</v>
+        <v>172.5039554833901</v>
       </c>
       <c r="S43" t="n">
         <v>201.4325717917746</v>
@@ -30715,7 +30715,7 @@
         <v>201.4325717917745</v>
       </c>
       <c r="I44" t="n">
-        <v>190.3778176099785</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30724,28 +30724,28 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>34.26460399572142</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>195.5598675371588</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>24.79054171974639</v>
       </c>
       <c r="P44" t="n">
-        <v>201.4325717917745</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>201.4325717917745</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>117.1219416806167</v>
       </c>
       <c r="S44" t="n">
-        <v>197.1405594429799</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="T44" t="n">
         <v>201.4325717917745</v>
@@ -30782,19 +30782,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H45" t="n">
         <v>109.5415757500918</v>
       </c>
       <c r="I45" t="n">
-        <v>79.79315073593985</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30827,19 +30827,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>199.0404484318762</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>24.31002889357393</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>130.0733806606931</v>
       </c>
       <c r="X45" t="n">
-        <v>201.4325717917745</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30888,7 +30888,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>5.725078441760019</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.30580516602831</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R46" t="n">
         <v>166.7788770416304</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5213169563692982</v>
+        <v>0.5213169563692984</v>
       </c>
       <c r="H35" t="n">
-        <v>5.338937279417077</v>
+        <v>5.338937279417078</v>
       </c>
       <c r="I35" t="n">
-        <v>20.09807196042739</v>
+        <v>20.0980719604274</v>
       </c>
       <c r="J35" t="n">
-        <v>44.24612502564876</v>
+        <v>44.24612502564878</v>
       </c>
       <c r="K35" t="n">
-        <v>66.31347178876116</v>
+        <v>66.31347178876119</v>
       </c>
       <c r="L35" t="n">
-        <v>82.2677255922481</v>
+        <v>82.26772559224813</v>
       </c>
       <c r="M35" t="n">
-        <v>91.53869601508059</v>
+        <v>91.53869601508063</v>
       </c>
       <c r="N35" t="n">
-        <v>93.01988781736488</v>
+        <v>93.01988781736492</v>
       </c>
       <c r="O35" t="n">
-        <v>87.83604233246766</v>
+        <v>87.8360423324677</v>
       </c>
       <c r="P35" t="n">
-        <v>74.9660299721006</v>
+        <v>74.96602997210063</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.29636647212509</v>
+        <v>56.29636647212511</v>
       </c>
       <c r="R35" t="n">
-        <v>32.74717626053295</v>
+        <v>32.74717626053297</v>
       </c>
       <c r="S35" t="n">
-        <v>11.87951014326539</v>
+        <v>11.8795101432654</v>
       </c>
       <c r="T35" t="n">
-        <v>2.282064976506604</v>
+        <v>2.282064976506605</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04170535650954384</v>
+        <v>0.04170535650954386</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.278929162080045</v>
+        <v>0.2789291620800451</v>
       </c>
       <c r="H36" t="n">
         <v>2.693868486404646</v>
       </c>
       <c r="I36" t="n">
-        <v>9.603482115475234</v>
+        <v>9.603482115475238</v>
       </c>
       <c r="J36" t="n">
-        <v>26.35268894897478</v>
+        <v>26.35268894897479</v>
       </c>
       <c r="K36" t="n">
-        <v>45.0409428083378</v>
+        <v>45.04094280833781</v>
       </c>
       <c r="L36" t="n">
-        <v>60.56310600338872</v>
+        <v>60.56310600338875</v>
       </c>
       <c r="M36" t="n">
-        <v>70.67428812879034</v>
+        <v>70.67428812879037</v>
       </c>
       <c r="N36" t="n">
-        <v>72.54482623765171</v>
+        <v>72.54482623765173</v>
       </c>
       <c r="O36" t="n">
-        <v>66.36434322524649</v>
+        <v>66.36434322524651</v>
       </c>
       <c r="P36" t="n">
-        <v>53.26323622210965</v>
+        <v>53.26323622210967</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.60506286481417</v>
+        <v>35.60506286481418</v>
       </c>
       <c r="R36" t="n">
-        <v>17.31807551932069</v>
+        <v>17.3180755193207</v>
       </c>
       <c r="S36" t="n">
-        <v>5.180986848285043</v>
+        <v>5.180986848285045</v>
       </c>
       <c r="T36" t="n">
         <v>1.124280262945444</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01835060276842402</v>
+        <v>0.01835060276842403</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,46 +33804,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2338448396500808</v>
+        <v>0.2338448396500809</v>
       </c>
       <c r="H37" t="n">
-        <v>2.079093210707084</v>
+        <v>2.079093210707085</v>
       </c>
       <c r="I37" t="n">
-        <v>7.032352086931524</v>
+        <v>7.032352086931527</v>
       </c>
       <c r="J37" t="n">
-        <v>16.53283016326071</v>
+        <v>16.53283016326072</v>
       </c>
       <c r="K37" t="n">
-        <v>27.16851864298211</v>
+        <v>27.16851864298213</v>
       </c>
       <c r="L37" t="n">
-        <v>34.76635006943111</v>
+        <v>34.76635006943113</v>
       </c>
       <c r="M37" t="n">
-        <v>36.65624154623949</v>
+        <v>36.6562415462395</v>
       </c>
       <c r="N37" t="n">
-        <v>35.7846380529983</v>
+        <v>35.78463805299832</v>
       </c>
       <c r="O37" t="n">
-        <v>33.05290515344962</v>
+        <v>33.05290515344964</v>
       </c>
       <c r="P37" t="n">
-        <v>28.28247042458795</v>
+        <v>28.28247042458796</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.58131652742631</v>
+        <v>19.58131652742632</v>
       </c>
       <c r="R37" t="n">
         <v>10.51451433553909</v>
       </c>
       <c r="S37" t="n">
-        <v>4.075277796447316</v>
+        <v>4.075277796447318</v>
       </c>
       <c r="T37" t="n">
-        <v>0.999155223959436</v>
+        <v>0.9991552239594365</v>
       </c>
       <c r="U37" t="n">
         <v>0.01275517307182261</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5213169563692982</v>
+        <v>0.5213169563692984</v>
       </c>
       <c r="H38" t="n">
-        <v>5.338937279417077</v>
+        <v>5.338937279417078</v>
       </c>
       <c r="I38" t="n">
-        <v>20.09807196042739</v>
+        <v>20.0980719604274</v>
       </c>
       <c r="J38" t="n">
-        <v>44.24612502564876</v>
+        <v>44.24612502564878</v>
       </c>
       <c r="K38" t="n">
-        <v>66.31347178876116</v>
+        <v>66.31347178876119</v>
       </c>
       <c r="L38" t="n">
-        <v>82.2677255922481</v>
+        <v>82.26772559224813</v>
       </c>
       <c r="M38" t="n">
-        <v>91.53869601508059</v>
+        <v>91.53869601508063</v>
       </c>
       <c r="N38" t="n">
-        <v>93.01988781736488</v>
+        <v>93.01988781736492</v>
       </c>
       <c r="O38" t="n">
-        <v>87.83604233246766</v>
+        <v>87.8360423324677</v>
       </c>
       <c r="P38" t="n">
-        <v>74.9660299721006</v>
+        <v>74.96602997210063</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.29636647212509</v>
+        <v>56.29636647212511</v>
       </c>
       <c r="R38" t="n">
-        <v>32.74717626053295</v>
+        <v>32.74717626053297</v>
       </c>
       <c r="S38" t="n">
-        <v>11.87951014326539</v>
+        <v>11.8795101432654</v>
       </c>
       <c r="T38" t="n">
-        <v>2.282064976506604</v>
+        <v>2.282064976506605</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04170535650954384</v>
+        <v>0.04170535650954386</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.278929162080045</v>
+        <v>0.2789291620800451</v>
       </c>
       <c r="H39" t="n">
         <v>2.693868486404646</v>
       </c>
       <c r="I39" t="n">
-        <v>9.603482115475234</v>
+        <v>9.603482115475238</v>
       </c>
       <c r="J39" t="n">
-        <v>26.35268894897478</v>
+        <v>26.35268894897479</v>
       </c>
       <c r="K39" t="n">
-        <v>45.0409428083378</v>
+        <v>45.04094280833781</v>
       </c>
       <c r="L39" t="n">
-        <v>60.56310600338872</v>
+        <v>60.56310600338875</v>
       </c>
       <c r="M39" t="n">
-        <v>70.67428812879034</v>
+        <v>70.67428812879037</v>
       </c>
       <c r="N39" t="n">
-        <v>72.54482623765171</v>
+        <v>72.54482623765173</v>
       </c>
       <c r="O39" t="n">
-        <v>66.36434322524649</v>
+        <v>66.36434322524651</v>
       </c>
       <c r="P39" t="n">
-        <v>53.26323622210965</v>
+        <v>53.26323622210967</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.60506286481417</v>
+        <v>35.60506286481418</v>
       </c>
       <c r="R39" t="n">
-        <v>17.31807551932069</v>
+        <v>17.3180755193207</v>
       </c>
       <c r="S39" t="n">
-        <v>5.180986848285043</v>
+        <v>5.180986848285045</v>
       </c>
       <c r="T39" t="n">
         <v>1.124280262945444</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01835060276842402</v>
+        <v>0.01835060276842403</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,46 +34041,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2338448396500808</v>
+        <v>0.2338448396500809</v>
       </c>
       <c r="H40" t="n">
-        <v>2.079093210707084</v>
+        <v>2.079093210707085</v>
       </c>
       <c r="I40" t="n">
-        <v>7.032352086931524</v>
+        <v>7.032352086931527</v>
       </c>
       <c r="J40" t="n">
-        <v>16.53283016326071</v>
+        <v>16.53283016326072</v>
       </c>
       <c r="K40" t="n">
-        <v>27.16851864298211</v>
+        <v>27.16851864298213</v>
       </c>
       <c r="L40" t="n">
-        <v>34.76635006943111</v>
+        <v>34.76635006943113</v>
       </c>
       <c r="M40" t="n">
-        <v>36.65624154623949</v>
+        <v>36.6562415462395</v>
       </c>
       <c r="N40" t="n">
-        <v>35.7846380529983</v>
+        <v>35.78463805299832</v>
       </c>
       <c r="O40" t="n">
-        <v>33.05290515344962</v>
+        <v>33.05290515344964</v>
       </c>
       <c r="P40" t="n">
-        <v>28.28247042458795</v>
+        <v>28.28247042458796</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.58131652742631</v>
+        <v>19.58131652742632</v>
       </c>
       <c r="R40" t="n">
         <v>10.51451433553909</v>
       </c>
       <c r="S40" t="n">
-        <v>4.075277796447316</v>
+        <v>4.075277796447318</v>
       </c>
       <c r="T40" t="n">
-        <v>0.999155223959436</v>
+        <v>0.9991552239594365</v>
       </c>
       <c r="U40" t="n">
         <v>0.01275517307182261</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5213169563692982</v>
+        <v>0.5213169563692984</v>
       </c>
       <c r="H41" t="n">
-        <v>5.338937279417077</v>
+        <v>5.338937279417078</v>
       </c>
       <c r="I41" t="n">
-        <v>20.09807196042739</v>
+        <v>20.0980719604274</v>
       </c>
       <c r="J41" t="n">
-        <v>44.24612502564876</v>
+        <v>44.24612502564878</v>
       </c>
       <c r="K41" t="n">
-        <v>66.31347178876116</v>
+        <v>66.31347178876119</v>
       </c>
       <c r="L41" t="n">
-        <v>82.2677255922481</v>
+        <v>82.26772559224813</v>
       </c>
       <c r="M41" t="n">
-        <v>91.53869601508059</v>
+        <v>91.53869601508063</v>
       </c>
       <c r="N41" t="n">
-        <v>93.01988781736488</v>
+        <v>93.01988781736492</v>
       </c>
       <c r="O41" t="n">
-        <v>87.83604233246766</v>
+        <v>87.8360423324677</v>
       </c>
       <c r="P41" t="n">
-        <v>74.9660299721006</v>
+        <v>74.96602997210063</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.29636647212509</v>
+        <v>56.29636647212511</v>
       </c>
       <c r="R41" t="n">
-        <v>32.74717626053295</v>
+        <v>32.74717626053297</v>
       </c>
       <c r="S41" t="n">
-        <v>11.87951014326539</v>
+        <v>11.8795101432654</v>
       </c>
       <c r="T41" t="n">
-        <v>2.282064976506604</v>
+        <v>2.282064976506605</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04170535650954384</v>
+        <v>0.04170535650954386</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.278929162080045</v>
+        <v>0.2789291620800451</v>
       </c>
       <c r="H42" t="n">
         <v>2.693868486404646</v>
       </c>
       <c r="I42" t="n">
-        <v>9.603482115475234</v>
+        <v>9.603482115475238</v>
       </c>
       <c r="J42" t="n">
-        <v>26.35268894897478</v>
+        <v>26.35268894897479</v>
       </c>
       <c r="K42" t="n">
-        <v>45.0409428083378</v>
+        <v>45.04094280833781</v>
       </c>
       <c r="L42" t="n">
-        <v>60.56310600338872</v>
+        <v>60.56310600338875</v>
       </c>
       <c r="M42" t="n">
-        <v>70.67428812879034</v>
+        <v>70.67428812879037</v>
       </c>
       <c r="N42" t="n">
-        <v>72.54482623765171</v>
+        <v>72.54482623765173</v>
       </c>
       <c r="O42" t="n">
-        <v>66.36434322524649</v>
+        <v>66.36434322524651</v>
       </c>
       <c r="P42" t="n">
-        <v>53.26323622210965</v>
+        <v>53.26323622210967</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.60506286481417</v>
+        <v>35.60506286481418</v>
       </c>
       <c r="R42" t="n">
-        <v>17.31807551932069</v>
+        <v>17.3180755193207</v>
       </c>
       <c r="S42" t="n">
-        <v>5.180986848285043</v>
+        <v>5.180986848285045</v>
       </c>
       <c r="T42" t="n">
         <v>1.124280262945444</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01835060276842402</v>
+        <v>0.01835060276842403</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2338448396500808</v>
+        <v>0.2338448396500809</v>
       </c>
       <c r="H43" t="n">
-        <v>2.079093210707084</v>
+        <v>2.079093210707085</v>
       </c>
       <c r="I43" t="n">
-        <v>7.032352086931524</v>
+        <v>7.032352086931527</v>
       </c>
       <c r="J43" t="n">
-        <v>16.53283016326071</v>
+        <v>16.53283016326072</v>
       </c>
       <c r="K43" t="n">
-        <v>27.16851864298211</v>
+        <v>27.16851864298213</v>
       </c>
       <c r="L43" t="n">
-        <v>34.76635006943111</v>
+        <v>34.76635006943113</v>
       </c>
       <c r="M43" t="n">
-        <v>36.65624154623949</v>
+        <v>36.6562415462395</v>
       </c>
       <c r="N43" t="n">
-        <v>35.7846380529983</v>
+        <v>35.78463805299832</v>
       </c>
       <c r="O43" t="n">
-        <v>33.05290515344962</v>
+        <v>33.05290515344964</v>
       </c>
       <c r="P43" t="n">
-        <v>28.28247042458795</v>
+        <v>28.28247042458796</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.58131652742631</v>
+        <v>19.58131652742632</v>
       </c>
       <c r="R43" t="n">
         <v>10.51451433553909</v>
       </c>
       <c r="S43" t="n">
-        <v>4.075277796447316</v>
+        <v>4.075277796447318</v>
       </c>
       <c r="T43" t="n">
-        <v>0.999155223959436</v>
+        <v>0.9991552239594365</v>
       </c>
       <c r="U43" t="n">
         <v>0.01275517307182261</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5213169563692982</v>
+        <v>0.5213169563692984</v>
       </c>
       <c r="H44" t="n">
-        <v>5.338937279417077</v>
+        <v>5.338937279417078</v>
       </c>
       <c r="I44" t="n">
-        <v>20.09807196042739</v>
+        <v>20.0980719604274</v>
       </c>
       <c r="J44" t="n">
-        <v>44.24612502564876</v>
+        <v>44.24612502564878</v>
       </c>
       <c r="K44" t="n">
-        <v>66.31347178876116</v>
+        <v>66.31347178876119</v>
       </c>
       <c r="L44" t="n">
-        <v>82.2677255922481</v>
+        <v>82.26772559224813</v>
       </c>
       <c r="M44" t="n">
-        <v>91.53869601508059</v>
+        <v>91.53869601508063</v>
       </c>
       <c r="N44" t="n">
-        <v>93.01988781736488</v>
+        <v>93.01988781736492</v>
       </c>
       <c r="O44" t="n">
-        <v>87.83604233246766</v>
+        <v>87.8360423324677</v>
       </c>
       <c r="P44" t="n">
-        <v>74.9660299721006</v>
+        <v>74.96602997210063</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.29636647212509</v>
+        <v>56.29636647212511</v>
       </c>
       <c r="R44" t="n">
-        <v>32.74717626053295</v>
+        <v>32.74717626053297</v>
       </c>
       <c r="S44" t="n">
-        <v>11.87951014326539</v>
+        <v>11.8795101432654</v>
       </c>
       <c r="T44" t="n">
-        <v>2.282064976506604</v>
+        <v>2.282064976506605</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04170535650954384</v>
+        <v>0.04170535650954386</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.278929162080045</v>
+        <v>0.2789291620800451</v>
       </c>
       <c r="H45" t="n">
         <v>2.693868486404646</v>
       </c>
       <c r="I45" t="n">
-        <v>9.603482115475234</v>
+        <v>9.603482115475238</v>
       </c>
       <c r="J45" t="n">
-        <v>26.35268894897478</v>
+        <v>26.35268894897479</v>
       </c>
       <c r="K45" t="n">
-        <v>45.0409428083378</v>
+        <v>45.04094280833781</v>
       </c>
       <c r="L45" t="n">
-        <v>60.56310600338872</v>
+        <v>60.56310600338875</v>
       </c>
       <c r="M45" t="n">
-        <v>70.67428812879034</v>
+        <v>70.67428812879037</v>
       </c>
       <c r="N45" t="n">
-        <v>72.54482623765171</v>
+        <v>72.54482623765173</v>
       </c>
       <c r="O45" t="n">
-        <v>66.36434322524649</v>
+        <v>66.36434322524651</v>
       </c>
       <c r="P45" t="n">
-        <v>53.26323622210965</v>
+        <v>53.26323622210967</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.60506286481417</v>
+        <v>35.60506286481418</v>
       </c>
       <c r="R45" t="n">
-        <v>17.31807551932069</v>
+        <v>17.3180755193207</v>
       </c>
       <c r="S45" t="n">
-        <v>5.180986848285043</v>
+        <v>5.180986848285045</v>
       </c>
       <c r="T45" t="n">
         <v>1.124280262945444</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01835060276842402</v>
+        <v>0.01835060276842403</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2338448396500808</v>
+        <v>0.2338448396500809</v>
       </c>
       <c r="H46" t="n">
-        <v>2.079093210707084</v>
+        <v>2.079093210707085</v>
       </c>
       <c r="I46" t="n">
-        <v>7.032352086931524</v>
+        <v>7.032352086931527</v>
       </c>
       <c r="J46" t="n">
-        <v>16.53283016326071</v>
+        <v>16.53283016326072</v>
       </c>
       <c r="K46" t="n">
-        <v>27.16851864298211</v>
+        <v>27.16851864298213</v>
       </c>
       <c r="L46" t="n">
-        <v>34.76635006943111</v>
+        <v>34.76635006943113</v>
       </c>
       <c r="M46" t="n">
-        <v>36.65624154623949</v>
+        <v>36.6562415462395</v>
       </c>
       <c r="N46" t="n">
-        <v>35.7846380529983</v>
+        <v>35.78463805299832</v>
       </c>
       <c r="O46" t="n">
-        <v>33.05290515344962</v>
+        <v>33.05290515344964</v>
       </c>
       <c r="P46" t="n">
-        <v>28.28247042458795</v>
+        <v>28.28247042458796</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.58131652742631</v>
+        <v>19.58131652742632</v>
       </c>
       <c r="R46" t="n">
         <v>10.51451433553909</v>
       </c>
       <c r="S46" t="n">
-        <v>4.075277796447316</v>
+        <v>4.075277796447318</v>
       </c>
       <c r="T46" t="n">
-        <v>0.999155223959436</v>
+        <v>0.9991552239594365</v>
       </c>
       <c r="U46" t="n">
         <v>0.01275517307182261</v>
@@ -35413,16 +35413,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>177.5320337538237</v>
       </c>
       <c r="M11" t="n">
-        <v>177.5320337538242</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="O11" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="P11" t="n">
         <v>165.5317423883137</v>
@@ -35495,16 +35495,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>84.97002721202442</v>
+        <v>84.97002721202415</v>
       </c>
       <c r="N12" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="O12" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="P12" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="Q12" t="n">
         <v>105.7005765146418</v>
@@ -35577,19 +35577,19 @@
         <v>76.24011850808009</v>
       </c>
       <c r="N13" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="O13" t="n">
-        <v>57.63803306748931</v>
+        <v>96.80312222732536</v>
       </c>
       <c r="P13" t="n">
         <v>25.56102968948145</v>
       </c>
       <c r="Q13" t="n">
-        <v>51.01753456997564</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>11.85244541013988</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35650,16 +35650,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>198.6988396730521</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>177.5320337538242</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="N14" t="n">
-        <v>198.6988396730521</v>
+        <v>177.5320337538237</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="P14" t="n">
         <v>165.5317423883137</v>
@@ -35732,16 +35732,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>84.97002721202442</v>
+        <v>84.97002721202415</v>
       </c>
       <c r="N15" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="O15" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="P15" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="Q15" t="n">
         <v>105.7005765146418</v>
@@ -35817,16 +35817,16 @@
         <v>79.91681043222691</v>
       </c>
       <c r="O16" t="n">
-        <v>57.63803306748931</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="P16" t="n">
-        <v>71.45755236264021</v>
+        <v>54.29978689472026</v>
       </c>
       <c r="Q16" t="n">
-        <v>112.0505957275022</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.85244541013988</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35890,13 +35890,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>198.6988396730521</v>
+        <v>177.5320337538237</v>
       </c>
       <c r="N17" t="n">
-        <v>177.5320337538242</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="O17" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="P17" t="n">
         <v>165.5317423883137</v>
@@ -35969,16 +35969,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>84.97002721202442</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="N18" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="O18" t="n">
-        <v>198.6988396730521</v>
+        <v>84.97002721202416</v>
       </c>
       <c r="P18" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="Q18" t="n">
         <v>105.7005765146418</v>
@@ -36121,25 +36121,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>170.3690333149454</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>53.46866769645863</v>
       </c>
       <c r="M20" t="n">
-        <v>177.5320337538242</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="O20" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="P20" t="n">
         <v>165.5317423883137</v>
       </c>
       <c r="Q20" t="n">
-        <v>46.30566725758031</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>84.97002721202442</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="N21" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="O21" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="P21" t="n">
-        <v>198.6988396730521</v>
+        <v>84.97002721202422</v>
       </c>
       <c r="Q21" t="n">
         <v>105.7005765146418</v>
@@ -36358,19 +36358,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>170.3690333149454</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>7.163000438878202</v>
       </c>
       <c r="M23" t="n">
-        <v>177.5320337538242</v>
+        <v>198.6988396730518</v>
       </c>
       <c r="N23" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730518</v>
       </c>
       <c r="O23" t="n">
-        <v>198.6988396730521</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>165.5317423883137</v>
@@ -36440,19 +36440,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>198.6988396730518</v>
       </c>
       <c r="M24" t="n">
-        <v>84.97002721202442</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>198.6988396730521</v>
+        <v>84.97002721202408</v>
       </c>
       <c r="O24" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730518</v>
       </c>
       <c r="P24" t="n">
-        <v>198.6988396730521</v>
+        <v>198.6988396730518</v>
       </c>
       <c r="Q24" t="n">
         <v>105.7005765146418</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>181.2989258938928</v>
+        <v>181.2989258938927</v>
       </c>
       <c r="K26" t="n">
         <v>319.3711235378019</v>
@@ -36604,7 +36604,7 @@
         <v>459.7080865034969</v>
       </c>
       <c r="N26" t="n">
-        <v>449.9558388556147</v>
+        <v>449.9558388556146</v>
       </c>
       <c r="O26" t="n">
         <v>387.5401023963828</v>
@@ -36616,7 +36616,7 @@
         <v>195.3077574804368</v>
       </c>
       <c r="R26" t="n">
-        <v>31.88014854223979</v>
+        <v>31.88014854223977</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3866172046441534</v>
+        <v>0.386617204644125</v>
       </c>
       <c r="E28" t="n">
-        <v>2.568127576287338</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>3.581042199925264</v>
+        <v>3.581042199925236</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,13 +36747,13 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5839673825297522</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>72.17574026944445</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>4.899026817099273</v>
+        <v>32.83231170840277</v>
       </c>
       <c r="L28" t="n">
         <v>62.35637532974727</v>
@@ -36765,13 +36765,13 @@
         <v>79.91681043222691</v>
       </c>
       <c r="O28" t="n">
-        <v>76.8242094547989</v>
+        <v>206.6401232903458</v>
       </c>
       <c r="P28" t="n">
-        <v>174.563119912338</v>
+        <v>174.5631199123379</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.42136349858845</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,22 +36838,22 @@
         <v>413.1646153955678</v>
       </c>
       <c r="M29" t="n">
-        <v>459.7080865034975</v>
+        <v>459.7080865034969</v>
       </c>
       <c r="N29" t="n">
         <v>449.9558388556147</v>
       </c>
       <c r="O29" t="n">
-        <v>387.5401023963828</v>
+        <v>387.5401023963825</v>
       </c>
       <c r="P29" t="n">
-        <v>314.5338326111702</v>
+        <v>314.5338326111703</v>
       </c>
       <c r="Q29" t="n">
-        <v>195.3077574804368</v>
+        <v>195.3077574804369</v>
       </c>
       <c r="R29" t="n">
-        <v>31.88014854223979</v>
+        <v>31.88014854223982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3866172046441534</v>
+        <v>0.3866172046441818</v>
       </c>
       <c r="E31" t="n">
-        <v>2.568127576287338</v>
+        <v>2.568127576287367</v>
       </c>
       <c r="F31" t="n">
-        <v>3.581042199925264</v>
+        <v>3.581042199925292</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,31 +36984,31 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.5839673825297806</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>72.17574026944447</v>
       </c>
       <c r="K31" t="n">
-        <v>4.899026817099273</v>
+        <v>24.08520320440804</v>
       </c>
       <c r="L31" t="n">
-        <v>62.35637532974727</v>
+        <v>211.3584655526038</v>
       </c>
       <c r="M31" t="n">
-        <v>225.2422087309366</v>
+        <v>76.24011850808009</v>
       </c>
       <c r="N31" t="n">
-        <v>79.91681043222691</v>
+        <v>228.9189006550835</v>
       </c>
       <c r="O31" t="n">
-        <v>149.583917106773</v>
+        <v>57.63803306748931</v>
       </c>
       <c r="P31" t="n">
-        <v>174.563119912338</v>
+        <v>25.56102968948145</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.42136349858845</v>
+        <v>82.42136349858848</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>181.2989258938927</v>
+        <v>181.2989258938928</v>
       </c>
       <c r="K32" t="n">
         <v>319.3711235378019</v>
@@ -37075,22 +37075,22 @@
         <v>413.1646153955678</v>
       </c>
       <c r="M32" t="n">
-        <v>459.708086503498</v>
+        <v>459.7080865034969</v>
       </c>
       <c r="N32" t="n">
-        <v>449.9558388556146</v>
+        <v>449.9558388556143</v>
       </c>
       <c r="O32" t="n">
         <v>387.5401023963828</v>
       </c>
       <c r="P32" t="n">
-        <v>314.5338326111702</v>
+        <v>314.5338326111703</v>
       </c>
       <c r="Q32" t="n">
-        <v>195.3077574804367</v>
+        <v>195.3077574804369</v>
       </c>
       <c r="R32" t="n">
-        <v>31.88014854223974</v>
+        <v>31.88014854223982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3866172046440965</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>2.568127576287281</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>3.581042199925207</v>
+        <v>3.581042199925292</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,31 +37221,31 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5839673825296954</v>
+        <v>0.5839673825297806</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>96.2609434738541</v>
+        <v>4.899026817099273</v>
       </c>
       <c r="L34" t="n">
-        <v>211.3584655526037</v>
+        <v>211.3584655526038</v>
       </c>
       <c r="M34" t="n">
-        <v>76.24011850808009</v>
+        <v>170.5567799457648</v>
       </c>
       <c r="N34" t="n">
         <v>79.91681043222691</v>
       </c>
       <c r="O34" t="n">
-        <v>206.6401232903458</v>
+        <v>206.6401232903459</v>
       </c>
       <c r="P34" t="n">
         <v>25.56102968948145</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.42136349858839</v>
+        <v>82.42136349858848</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>32.29683567103624</v>
+        <v>32.29683567103626</v>
       </c>
       <c r="K35" t="n">
-        <v>170.3690333149453</v>
+        <v>317.4635666424889</v>
       </c>
       <c r="L35" t="n">
         <v>264.1625251727113</v>
@@ -37315,22 +37315,22 @@
         <v>310.7059962806404</v>
       </c>
       <c r="N35" t="n">
-        <v>300.9537486327581</v>
+        <v>300.9537486327582</v>
       </c>
       <c r="O35" t="n">
         <v>238.5380121735263</v>
       </c>
       <c r="P35" t="n">
-        <v>366.9643141800883</v>
+        <v>165.5317423883137</v>
       </c>
       <c r="Q35" t="n">
-        <v>193.4002005851237</v>
+        <v>247.7382390493548</v>
       </c>
       <c r="R35" t="n">
-        <v>84.31063011115781</v>
+        <v>84.31063011115782</v>
       </c>
       <c r="S35" t="n">
-        <v>4.292012348794588</v>
+        <v>4.292012348794593</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>25.60609762271692</v>
+        <v>25.60609762271693</v>
       </c>
       <c r="K36" t="n">
         <v>171.6647408465574</v>
@@ -37403,7 +37403,7 @@
         <v>237.7515974477166</v>
       </c>
       <c r="Q36" t="n">
-        <v>105.7005765146417</v>
+        <v>105.7005765146418</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37455,7 +37455,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>5.725078441760208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>4.899026817099259</v>
+        <v>4.899026817099273</v>
       </c>
       <c r="L37" t="n">
-        <v>62.35637532974725</v>
+        <v>62.35637532974727</v>
       </c>
       <c r="M37" t="n">
-        <v>76.24011850808007</v>
+        <v>76.24011850808009</v>
       </c>
       <c r="N37" t="n">
-        <v>79.9168104322269</v>
+        <v>85.64188887398693</v>
       </c>
       <c r="O37" t="n">
-        <v>57.6380330674893</v>
+        <v>57.63803306748931</v>
       </c>
       <c r="P37" t="n">
-        <v>25.56102968948143</v>
+        <v>25.56102968948145</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,34 +37540,34 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>32.29683567103624</v>
+        <v>32.29683567103626</v>
       </c>
       <c r="K38" t="n">
-        <v>170.3690333149453</v>
+        <v>170.3690333149454</v>
       </c>
       <c r="L38" t="n">
-        <v>298.4271291684327</v>
+        <v>264.1625251727113</v>
       </c>
       <c r="M38" t="n">
-        <v>310.7059962806404</v>
+        <v>457.800529608184</v>
       </c>
       <c r="N38" t="n">
-        <v>300.9537486327581</v>
+        <v>300.9537486327582</v>
       </c>
       <c r="O38" t="n">
-        <v>238.5380121735263</v>
+        <v>439.9705839653008</v>
       </c>
       <c r="P38" t="n">
-        <v>366.9643141800882</v>
+        <v>165.5317423883137</v>
       </c>
       <c r="Q38" t="n">
-        <v>247.7382390493548</v>
+        <v>46.30566725758031</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>84.31063011115776</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>4.292012348794536</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>25.60609762271692</v>
+        <v>25.60609762271741</v>
       </c>
       <c r="K39" t="n">
         <v>171.6647408465574</v>
@@ -37640,7 +37640,7 @@
         <v>237.7515974477166</v>
       </c>
       <c r="Q39" t="n">
-        <v>105.7005765146417</v>
+        <v>105.7005765146418</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,28 +37701,28 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>4.899026817099259</v>
+        <v>4.899026817099273</v>
       </c>
       <c r="L40" t="n">
-        <v>62.35637532974725</v>
+        <v>62.35637532974727</v>
       </c>
       <c r="M40" t="n">
-        <v>76.24011850808007</v>
+        <v>76.24011850808009</v>
       </c>
       <c r="N40" t="n">
-        <v>79.9168104322269</v>
+        <v>79.91681043222691</v>
       </c>
       <c r="O40" t="n">
-        <v>57.6380330674893</v>
+        <v>57.63803306748931</v>
       </c>
       <c r="P40" t="n">
-        <v>31.28610813124182</v>
+        <v>25.56102968948145</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.725078441760459</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>32.29683567103624</v>
+        <v>32.29683567103626</v>
       </c>
       <c r="K41" t="n">
-        <v>170.3690333149453</v>
+        <v>170.3690333149454</v>
       </c>
       <c r="L41" t="n">
         <v>264.1625251727113</v>
@@ -37792,13 +37792,13 @@
         <v>496.5136161699169</v>
       </c>
       <c r="O41" t="n">
-        <v>278.6753204238634</v>
+        <v>238.5380121735263</v>
       </c>
       <c r="P41" t="n">
-        <v>165.5317423883137</v>
+        <v>366.9643141800883</v>
       </c>
       <c r="Q41" t="n">
-        <v>247.7382390493548</v>
+        <v>86.44297550791713</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>237.7515974477166</v>
       </c>
       <c r="Q42" t="n">
-        <v>105.7005765146417</v>
+        <v>105.7005765146418</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,28 +37938,28 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>4.899026817099259</v>
+        <v>4.899026817099273</v>
       </c>
       <c r="L43" t="n">
-        <v>62.35637532974725</v>
+        <v>62.35637532974727</v>
       </c>
       <c r="M43" t="n">
-        <v>76.24011850808007</v>
+        <v>76.24011850808009</v>
       </c>
       <c r="N43" t="n">
-        <v>79.9168104322269</v>
+        <v>79.91681043222691</v>
       </c>
       <c r="O43" t="n">
-        <v>57.6380330674893</v>
+        <v>57.63803306748931</v>
       </c>
       <c r="P43" t="n">
-        <v>25.56102968948143</v>
+        <v>25.56102968948145</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.72507844176</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.72507844175977</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38011,37 +38011,37 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>11.05475418179602</v>
       </c>
       <c r="J44" t="n">
-        <v>32.29683567103624</v>
+        <v>32.29683567103626</v>
       </c>
       <c r="K44" t="n">
-        <v>170.3690333149453</v>
+        <v>170.3690333149454</v>
       </c>
       <c r="L44" t="n">
-        <v>298.4271291684327</v>
+        <v>465.5950969644858</v>
       </c>
       <c r="M44" t="n">
         <v>310.7059962806404</v>
       </c>
       <c r="N44" t="n">
-        <v>300.9537486327581</v>
+        <v>496.5136161699169</v>
       </c>
       <c r="O44" t="n">
-        <v>238.5380121735263</v>
+        <v>263.3285538932727</v>
       </c>
       <c r="P44" t="n">
-        <v>366.9643141800883</v>
+        <v>165.5317423883137</v>
       </c>
       <c r="Q44" t="n">
-        <v>247.7382390493548</v>
+        <v>46.30566725758031</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>4.292012348794593</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>25.60609762271741</v>
+        <v>25.60609762271693</v>
       </c>
       <c r="K45" t="n">
         <v>171.6647408465574</v>
@@ -38114,7 +38114,7 @@
         <v>237.7515974477166</v>
       </c>
       <c r="Q45" t="n">
-        <v>105.7005765146417</v>
+        <v>105.7005765146418</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>4.899026817099259</v>
+        <v>4.899026817099273</v>
       </c>
       <c r="L46" t="n">
-        <v>62.35637532974725</v>
+        <v>62.35637532974727</v>
       </c>
       <c r="M46" t="n">
-        <v>76.24011850808007</v>
+        <v>76.24011850808009</v>
       </c>
       <c r="N46" t="n">
-        <v>79.9168104322269</v>
+        <v>85.64188887398693</v>
       </c>
       <c r="O46" t="n">
-        <v>57.6380330674893</v>
+        <v>57.63803306748931</v>
       </c>
       <c r="P46" t="n">
-        <v>25.56102968948143</v>
+        <v>25.56102968948145</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.72507844176023</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
